--- a/docs/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/成果物サンプル＆ガイド/DC-201_ステークホルダー定義(サンプル＆ガイド).xlsx
+++ b/docs/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/成果物サンプル＆ガイド/DC-201_ステークホルダー定義(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1177,16 +1177,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -1296,6 +1286,13 @@
     </rPh>
     <rPh sb="63" eb="64">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1799,9 +1796,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1811,7 +1805,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1826,35 +1850,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18325,9 +18322,7 @@
       <c r="G31" s="31"/>
       <c r="H31" s="27"/>
       <c r="J31" s="32"/>
-      <c r="R31" s="33" t="s">
-        <v>77</v>
-      </c>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" spans="6:18" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F32" s="27"/>
@@ -18386,20 +18381,24 @@
     </row>
     <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
       <c r="Q38" s="39"/>
       <c r="R38" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18878,7 +18877,7 @@
     <hyperlink ref="E38" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -18904,7 +18903,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -18988,44 +18987,44 @@
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="43" t="s">
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="45"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="44"/>
     </row>
     <row r="24" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6">
@@ -19072,42 +19071,42 @@
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
     </row>
     <row r="26" spans="2:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
@@ -19165,126 +19164,126 @@
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="43" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="43" t="s">
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="45"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="44"/>
     </row>
     <row r="33" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42" t="s">
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
     </row>
     <row r="34" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
     </row>
     <row r="35" spans="1:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
@@ -19329,7 +19328,7 @@
     <row r="37" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -19342,44 +19341,44 @@
       <c r="B41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="43" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="43" t="s">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="45"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="44"/>
     </row>
     <row r="42" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
@@ -19388,85 +19387,85 @@
       <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42" t="s">
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42" t="s">
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
-      <c r="AH42" s="42"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="45"/>
     </row>
     <row r="43" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42" t="s">
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
-      <c r="AA43" s="42"/>
-      <c r="AB43" s="42"/>
-      <c r="AC43" s="42"/>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="42"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="45"/>
     </row>
     <row r="44" spans="1:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
@@ -19520,44 +19519,44 @@
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="43" t="s">
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="43" t="s">
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
-      <c r="AC50" s="44"/>
-      <c r="AD50" s="44"/>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="45"/>
+      <c r="AA50" s="43"/>
+      <c r="AB50" s="43"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="43"/>
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="44"/>
     </row>
     <row r="51" spans="1:35" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6">
@@ -19604,42 +19603,42 @@
       <c r="B52" s="4">
         <v>2</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42" t="s">
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="42"/>
-      <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42"/>
-      <c r="AH52" s="42"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="45"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="45"/>
+      <c r="AH52" s="45"/>
     </row>
     <row r="53" spans="1:35" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:35" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19662,15 +19661,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
+    <mergeCell ref="I34:Y34"/>
+    <mergeCell ref="Z34:AH34"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:Y50"/>
+    <mergeCell ref="Z50:AH50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:Y51"/>
+    <mergeCell ref="Z51:AH51"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:Y41"/>
+    <mergeCell ref="Z41:AH41"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="I52:Y52"/>
     <mergeCell ref="Z52:AH52"/>
@@ -19687,17 +19688,15 @@
     <mergeCell ref="I43:Y43"/>
     <mergeCell ref="Z43:AH43"/>
     <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:Y51"/>
-    <mergeCell ref="Z51:AH51"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:Y41"/>
-    <mergeCell ref="Z41:AH41"/>
-    <mergeCell ref="I34:Y34"/>
-    <mergeCell ref="Z34:AH34"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:Y50"/>
-    <mergeCell ref="Z50:AH50"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -20591,98 +20590,98 @@
       </c>
     </row>
     <row r="136" spans="1:34" s="19" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="47" t="s">
+      <c r="B136" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="47"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47" t="s">
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G136" s="47"/>
-      <c r="H136" s="55" t="s">
+      <c r="G136" s="56"/>
+      <c r="H136" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="I136" s="47"/>
-      <c r="J136" s="47"/>
-      <c r="K136" s="47" t="s">
+      <c r="I136" s="56"/>
+      <c r="J136" s="56"/>
+      <c r="K136" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L136" s="47"/>
-      <c r="M136" s="47"/>
-      <c r="N136" s="47"/>
-      <c r="O136" s="47"/>
-      <c r="P136" s="47"/>
-      <c r="Q136" s="47" t="s">
+      <c r="L136" s="56"/>
+      <c r="M136" s="56"/>
+      <c r="N136" s="56"/>
+      <c r="O136" s="56"/>
+      <c r="P136" s="56"/>
+      <c r="Q136" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="R136" s="47"/>
-      <c r="S136" s="47"/>
-      <c r="T136" s="47"/>
-      <c r="U136" s="47"/>
-      <c r="V136" s="47"/>
-      <c r="W136" s="47"/>
-      <c r="X136" s="47"/>
-      <c r="Y136" s="47"/>
-      <c r="Z136" s="47" t="s">
+      <c r="R136" s="56"/>
+      <c r="S136" s="56"/>
+      <c r="T136" s="56"/>
+      <c r="U136" s="56"/>
+      <c r="V136" s="56"/>
+      <c r="W136" s="56"/>
+      <c r="X136" s="56"/>
+      <c r="Y136" s="56"/>
+      <c r="Z136" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AA136" s="47"/>
-      <c r="AB136" s="47"/>
-      <c r="AC136" s="47"/>
-      <c r="AD136" s="47"/>
-      <c r="AE136" s="47"/>
-      <c r="AF136" s="47"/>
-      <c r="AG136" s="47"/>
-      <c r="AH136" s="47"/>
+      <c r="AA136" s="56"/>
+      <c r="AB136" s="56"/>
+      <c r="AC136" s="56"/>
+      <c r="AD136" s="56"/>
+      <c r="AE136" s="56"/>
+      <c r="AF136" s="56"/>
+      <c r="AG136" s="56"/>
+      <c r="AH136" s="56"/>
     </row>
     <row r="137" spans="1:34" s="19" customFormat="1" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="48"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="48" t="s">
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G137" s="48"/>
-      <c r="H137" s="48" t="s">
+      <c r="G137" s="57"/>
+      <c r="H137" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I137" s="48"/>
-      <c r="J137" s="48"/>
-      <c r="K137" s="49" t="s">
+      <c r="I137" s="57"/>
+      <c r="J137" s="57"/>
+      <c r="K137" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="L137" s="49"/>
-      <c r="M137" s="49"/>
-      <c r="N137" s="49"/>
-      <c r="O137" s="49"/>
-      <c r="P137" s="49"/>
-      <c r="Q137" s="49" t="s">
+      <c r="L137" s="58"/>
+      <c r="M137" s="58"/>
+      <c r="N137" s="58"/>
+      <c r="O137" s="58"/>
+      <c r="P137" s="58"/>
+      <c r="Q137" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="R137" s="49"/>
-      <c r="S137" s="49"/>
-      <c r="T137" s="49"/>
-      <c r="U137" s="49"/>
-      <c r="V137" s="49"/>
-      <c r="W137" s="49"/>
-      <c r="X137" s="49"/>
-      <c r="Y137" s="49"/>
-      <c r="Z137" s="49" t="s">
+      <c r="R137" s="58"/>
+      <c r="S137" s="58"/>
+      <c r="T137" s="58"/>
+      <c r="U137" s="58"/>
+      <c r="V137" s="58"/>
+      <c r="W137" s="58"/>
+      <c r="X137" s="58"/>
+      <c r="Y137" s="58"/>
+      <c r="Z137" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AA137" s="50"/>
-      <c r="AB137" s="50"/>
-      <c r="AC137" s="50"/>
-      <c r="AD137" s="50"/>
-      <c r="AE137" s="50"/>
-      <c r="AF137" s="50"/>
-      <c r="AG137" s="50"/>
-      <c r="AH137" s="50"/>
+      <c r="AA137" s="59"/>
+      <c r="AB137" s="59"/>
+      <c r="AC137" s="59"/>
+      <c r="AD137" s="59"/>
+      <c r="AE137" s="59"/>
+      <c r="AF137" s="59"/>
+      <c r="AG137" s="59"/>
+      <c r="AH137" s="59"/>
     </row>
     <row r="138" spans="1:34" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="51" t="s">
@@ -20700,25 +20699,25 @@
       </c>
       <c r="I138" s="51"/>
       <c r="J138" s="51"/>
-      <c r="K138" s="42" t="s">
+      <c r="K138" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="L138" s="42"/>
-      <c r="M138" s="42"/>
-      <c r="N138" s="42"/>
-      <c r="O138" s="42"/>
-      <c r="P138" s="42"/>
-      <c r="Q138" s="42" t="s">
+      <c r="L138" s="45"/>
+      <c r="M138" s="45"/>
+      <c r="N138" s="45"/>
+      <c r="O138" s="45"/>
+      <c r="P138" s="45"/>
+      <c r="Q138" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="R138" s="42"/>
-      <c r="S138" s="42"/>
-      <c r="T138" s="42"/>
-      <c r="U138" s="42"/>
-      <c r="V138" s="42"/>
-      <c r="W138" s="42"/>
-      <c r="X138" s="42"/>
-      <c r="Y138" s="42"/>
+      <c r="R138" s="45"/>
+      <c r="S138" s="45"/>
+      <c r="T138" s="45"/>
+      <c r="U138" s="45"/>
+      <c r="V138" s="45"/>
+      <c r="W138" s="45"/>
+      <c r="X138" s="45"/>
+      <c r="Y138" s="45"/>
       <c r="Z138" s="52" t="s">
         <v>44</v>
       </c>
@@ -20747,36 +20746,36 @@
       </c>
       <c r="I139" s="51"/>
       <c r="J139" s="51"/>
-      <c r="K139" s="42" t="s">
+      <c r="K139" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="L139" s="42"/>
-      <c r="M139" s="42"/>
-      <c r="N139" s="42"/>
-      <c r="O139" s="42"/>
-      <c r="P139" s="42"/>
-      <c r="Q139" s="42" t="s">
+      <c r="L139" s="45"/>
+      <c r="M139" s="45"/>
+      <c r="N139" s="45"/>
+      <c r="O139" s="45"/>
+      <c r="P139" s="45"/>
+      <c r="Q139" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="R139" s="42"/>
-      <c r="S139" s="42"/>
-      <c r="T139" s="42"/>
-      <c r="U139" s="42"/>
-      <c r="V139" s="42"/>
-      <c r="W139" s="42"/>
-      <c r="X139" s="42"/>
-      <c r="Y139" s="42"/>
-      <c r="Z139" s="42" t="s">
+      <c r="R139" s="45"/>
+      <c r="S139" s="45"/>
+      <c r="T139" s="45"/>
+      <c r="U139" s="45"/>
+      <c r="V139" s="45"/>
+      <c r="W139" s="45"/>
+      <c r="X139" s="45"/>
+      <c r="Y139" s="45"/>
+      <c r="Z139" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AA139" s="56"/>
-      <c r="AB139" s="56"/>
-      <c r="AC139" s="56"/>
-      <c r="AD139" s="56"/>
-      <c r="AE139" s="56"/>
-      <c r="AF139" s="56"/>
-      <c r="AG139" s="56"/>
-      <c r="AH139" s="56"/>
+      <c r="AA139" s="55"/>
+      <c r="AB139" s="55"/>
+      <c r="AC139" s="55"/>
+      <c r="AD139" s="55"/>
+      <c r="AE139" s="55"/>
+      <c r="AF139" s="55"/>
+      <c r="AG139" s="55"/>
+      <c r="AH139" s="55"/>
     </row>
     <row r="140" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="51" t="s">
@@ -20794,36 +20793,36 @@
       </c>
       <c r="I140" s="51"/>
       <c r="J140" s="51"/>
-      <c r="K140" s="42" t="s">
+      <c r="K140" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="L140" s="42"/>
-      <c r="M140" s="42"/>
-      <c r="N140" s="42"/>
-      <c r="O140" s="42"/>
-      <c r="P140" s="42"/>
-      <c r="Q140" s="42" t="s">
+      <c r="L140" s="45"/>
+      <c r="M140" s="45"/>
+      <c r="N140" s="45"/>
+      <c r="O140" s="45"/>
+      <c r="P140" s="45"/>
+      <c r="Q140" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R140" s="42"/>
-      <c r="S140" s="42"/>
-      <c r="T140" s="42"/>
-      <c r="U140" s="42"/>
-      <c r="V140" s="42"/>
-      <c r="W140" s="42"/>
-      <c r="X140" s="42"/>
-      <c r="Y140" s="42"/>
-      <c r="Z140" s="42" t="s">
+      <c r="R140" s="45"/>
+      <c r="S140" s="45"/>
+      <c r="T140" s="45"/>
+      <c r="U140" s="45"/>
+      <c r="V140" s="45"/>
+      <c r="W140" s="45"/>
+      <c r="X140" s="45"/>
+      <c r="Y140" s="45"/>
+      <c r="Z140" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AA140" s="42"/>
-      <c r="AB140" s="42"/>
-      <c r="AC140" s="42"/>
-      <c r="AD140" s="42"/>
-      <c r="AE140" s="42"/>
-      <c r="AF140" s="42"/>
-      <c r="AG140" s="42"/>
-      <c r="AH140" s="42"/>
+      <c r="AA140" s="45"/>
+      <c r="AB140" s="45"/>
+      <c r="AC140" s="45"/>
+      <c r="AD140" s="45"/>
+      <c r="AE140" s="45"/>
+      <c r="AF140" s="45"/>
+      <c r="AG140" s="45"/>
+      <c r="AH140" s="45"/>
     </row>
     <row r="141" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="51"/>
@@ -20835,30 +20834,30 @@
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
       <c r="J141" s="51"/>
-      <c r="K141" s="42"/>
-      <c r="L141" s="42"/>
-      <c r="M141" s="42"/>
-      <c r="N141" s="42"/>
-      <c r="O141" s="42"/>
-      <c r="P141" s="42"/>
-      <c r="Q141" s="42"/>
-      <c r="R141" s="42"/>
-      <c r="S141" s="42"/>
-      <c r="T141" s="42"/>
-      <c r="U141" s="42"/>
-      <c r="V141" s="42"/>
-      <c r="W141" s="42"/>
-      <c r="X141" s="42"/>
-      <c r="Y141" s="42"/>
-      <c r="Z141" s="42"/>
-      <c r="AA141" s="42"/>
-      <c r="AB141" s="42"/>
-      <c r="AC141" s="42"/>
-      <c r="AD141" s="42"/>
-      <c r="AE141" s="42"/>
-      <c r="AF141" s="42"/>
-      <c r="AG141" s="42"/>
-      <c r="AH141" s="42"/>
+      <c r="K141" s="45"/>
+      <c r="L141" s="45"/>
+      <c r="M141" s="45"/>
+      <c r="N141" s="45"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="45"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="45"/>
+      <c r="S141" s="45"/>
+      <c r="T141" s="45"/>
+      <c r="U141" s="45"/>
+      <c r="V141" s="45"/>
+      <c r="W141" s="45"/>
+      <c r="X141" s="45"/>
+      <c r="Y141" s="45"/>
+      <c r="Z141" s="45"/>
+      <c r="AA141" s="45"/>
+      <c r="AB141" s="45"/>
+      <c r="AC141" s="45"/>
+      <c r="AD141" s="45"/>
+      <c r="AE141" s="45"/>
+      <c r="AF141" s="45"/>
+      <c r="AG141" s="45"/>
+      <c r="AH141" s="45"/>
     </row>
     <row r="142" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="51"/>
@@ -20870,30 +20869,30 @@
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
       <c r="J142" s="51"/>
-      <c r="K142" s="42"/>
-      <c r="L142" s="42"/>
-      <c r="M142" s="42"/>
-      <c r="N142" s="42"/>
-      <c r="O142" s="42"/>
-      <c r="P142" s="42"/>
-      <c r="Q142" s="42"/>
-      <c r="R142" s="42"/>
-      <c r="S142" s="42"/>
-      <c r="T142" s="42"/>
-      <c r="U142" s="42"/>
-      <c r="V142" s="42"/>
-      <c r="W142" s="42"/>
-      <c r="X142" s="42"/>
-      <c r="Y142" s="42"/>
-      <c r="Z142" s="42"/>
-      <c r="AA142" s="56"/>
-      <c r="AB142" s="56"/>
-      <c r="AC142" s="56"/>
-      <c r="AD142" s="56"/>
-      <c r="AE142" s="56"/>
-      <c r="AF142" s="56"/>
-      <c r="AG142" s="56"/>
-      <c r="AH142" s="56"/>
+      <c r="K142" s="45"/>
+      <c r="L142" s="45"/>
+      <c r="M142" s="45"/>
+      <c r="N142" s="45"/>
+      <c r="O142" s="45"/>
+      <c r="P142" s="45"/>
+      <c r="Q142" s="45"/>
+      <c r="R142" s="45"/>
+      <c r="S142" s="45"/>
+      <c r="T142" s="45"/>
+      <c r="U142" s="45"/>
+      <c r="V142" s="45"/>
+      <c r="W142" s="45"/>
+      <c r="X142" s="45"/>
+      <c r="Y142" s="45"/>
+      <c r="Z142" s="45"/>
+      <c r="AA142" s="55"/>
+      <c r="AB142" s="55"/>
+      <c r="AC142" s="55"/>
+      <c r="AD142" s="55"/>
+      <c r="AE142" s="55"/>
+      <c r="AF142" s="55"/>
+      <c r="AG142" s="55"/>
+      <c r="AH142" s="55"/>
     </row>
     <row r="143" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="51"/>
@@ -20905,21 +20904,21 @@
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="51"/>
-      <c r="K143" s="42"/>
-      <c r="L143" s="42"/>
-      <c r="M143" s="42"/>
-      <c r="N143" s="42"/>
-      <c r="O143" s="42"/>
-      <c r="P143" s="42"/>
-      <c r="Q143" s="42"/>
-      <c r="R143" s="42"/>
-      <c r="S143" s="42"/>
-      <c r="T143" s="42"/>
-      <c r="U143" s="42"/>
-      <c r="V143" s="42"/>
-      <c r="W143" s="42"/>
-      <c r="X143" s="42"/>
-      <c r="Y143" s="42"/>
+      <c r="K143" s="45"/>
+      <c r="L143" s="45"/>
+      <c r="M143" s="45"/>
+      <c r="N143" s="45"/>
+      <c r="O143" s="45"/>
+      <c r="P143" s="45"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="45"/>
+      <c r="S143" s="45"/>
+      <c r="T143" s="45"/>
+      <c r="U143" s="45"/>
+      <c r="V143" s="45"/>
+      <c r="W143" s="45"/>
+      <c r="X143" s="45"/>
+      <c r="Y143" s="45"/>
       <c r="Z143" s="52"/>
       <c r="AA143" s="53"/>
       <c r="AB143" s="53"/>
@@ -20940,30 +20939,30 @@
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
       <c r="J144" s="51"/>
-      <c r="K144" s="42"/>
-      <c r="L144" s="42"/>
-      <c r="M144" s="42"/>
-      <c r="N144" s="42"/>
-      <c r="O144" s="42"/>
-      <c r="P144" s="42"/>
-      <c r="Q144" s="42"/>
-      <c r="R144" s="42"/>
-      <c r="S144" s="42"/>
-      <c r="T144" s="42"/>
-      <c r="U144" s="42"/>
-      <c r="V144" s="42"/>
-      <c r="W144" s="42"/>
-      <c r="X144" s="42"/>
-      <c r="Y144" s="42"/>
-      <c r="Z144" s="42"/>
-      <c r="AA144" s="42"/>
-      <c r="AB144" s="42"/>
-      <c r="AC144" s="42"/>
-      <c r="AD144" s="42"/>
-      <c r="AE144" s="42"/>
-      <c r="AF144" s="42"/>
-      <c r="AG144" s="42"/>
-      <c r="AH144" s="42"/>
+      <c r="K144" s="45"/>
+      <c r="L144" s="45"/>
+      <c r="M144" s="45"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="45"/>
+      <c r="P144" s="45"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="45"/>
+      <c r="S144" s="45"/>
+      <c r="T144" s="45"/>
+      <c r="U144" s="45"/>
+      <c r="V144" s="45"/>
+      <c r="W144" s="45"/>
+      <c r="X144" s="45"/>
+      <c r="Y144" s="45"/>
+      <c r="Z144" s="45"/>
+      <c r="AA144" s="45"/>
+      <c r="AB144" s="45"/>
+      <c r="AC144" s="45"/>
+      <c r="AD144" s="45"/>
+      <c r="AE144" s="45"/>
+      <c r="AF144" s="45"/>
+      <c r="AG144" s="45"/>
+      <c r="AH144" s="45"/>
     </row>
     <row r="145" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="51"/>
@@ -20975,30 +20974,30 @@
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
       <c r="J145" s="51"/>
-      <c r="K145" s="42"/>
-      <c r="L145" s="42"/>
-      <c r="M145" s="42"/>
-      <c r="N145" s="42"/>
-      <c r="O145" s="42"/>
-      <c r="P145" s="42"/>
-      <c r="Q145" s="42"/>
-      <c r="R145" s="42"/>
-      <c r="S145" s="42"/>
-      <c r="T145" s="42"/>
-      <c r="U145" s="42"/>
-      <c r="V145" s="42"/>
-      <c r="W145" s="42"/>
-      <c r="X145" s="42"/>
-      <c r="Y145" s="42"/>
-      <c r="Z145" s="42"/>
-      <c r="AA145" s="42"/>
-      <c r="AB145" s="42"/>
-      <c r="AC145" s="42"/>
-      <c r="AD145" s="42"/>
-      <c r="AE145" s="42"/>
-      <c r="AF145" s="42"/>
-      <c r="AG145" s="42"/>
-      <c r="AH145" s="42"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="45"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="45"/>
+      <c r="S145" s="45"/>
+      <c r="T145" s="45"/>
+      <c r="U145" s="45"/>
+      <c r="V145" s="45"/>
+      <c r="W145" s="45"/>
+      <c r="X145" s="45"/>
+      <c r="Y145" s="45"/>
+      <c r="Z145" s="45"/>
+      <c r="AA145" s="45"/>
+      <c r="AB145" s="45"/>
+      <c r="AC145" s="45"/>
+      <c r="AD145" s="45"/>
+      <c r="AE145" s="45"/>
+      <c r="AF145" s="45"/>
+      <c r="AG145" s="45"/>
+      <c r="AH145" s="45"/>
     </row>
     <row r="146" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="51"/>
@@ -21010,30 +21009,30 @@
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
       <c r="J146" s="51"/>
-      <c r="K146" s="42"/>
-      <c r="L146" s="42"/>
-      <c r="M146" s="42"/>
-      <c r="N146" s="42"/>
-      <c r="O146" s="42"/>
-      <c r="P146" s="42"/>
-      <c r="Q146" s="42"/>
-      <c r="R146" s="42"/>
-      <c r="S146" s="42"/>
-      <c r="T146" s="42"/>
-      <c r="U146" s="42"/>
-      <c r="V146" s="42"/>
-      <c r="W146" s="42"/>
-      <c r="X146" s="42"/>
-      <c r="Y146" s="42"/>
-      <c r="Z146" s="42"/>
-      <c r="AA146" s="42"/>
-      <c r="AB146" s="42"/>
-      <c r="AC146" s="42"/>
-      <c r="AD146" s="42"/>
-      <c r="AE146" s="42"/>
-      <c r="AF146" s="42"/>
-      <c r="AG146" s="42"/>
-      <c r="AH146" s="42"/>
+      <c r="K146" s="45"/>
+      <c r="L146" s="45"/>
+      <c r="M146" s="45"/>
+      <c r="N146" s="45"/>
+      <c r="O146" s="45"/>
+      <c r="P146" s="45"/>
+      <c r="Q146" s="45"/>
+      <c r="R146" s="45"/>
+      <c r="S146" s="45"/>
+      <c r="T146" s="45"/>
+      <c r="U146" s="45"/>
+      <c r="V146" s="45"/>
+      <c r="W146" s="45"/>
+      <c r="X146" s="45"/>
+      <c r="Y146" s="45"/>
+      <c r="Z146" s="45"/>
+      <c r="AA146" s="45"/>
+      <c r="AB146" s="45"/>
+      <c r="AC146" s="45"/>
+      <c r="AD146" s="45"/>
+      <c r="AE146" s="45"/>
+      <c r="AF146" s="45"/>
+      <c r="AG146" s="45"/>
+      <c r="AH146" s="45"/>
     </row>
     <row r="147" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="51"/>
@@ -21045,30 +21044,30 @@
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
       <c r="J147" s="51"/>
-      <c r="K147" s="42"/>
-      <c r="L147" s="42"/>
-      <c r="M147" s="42"/>
-      <c r="N147" s="42"/>
-      <c r="O147" s="42"/>
-      <c r="P147" s="42"/>
-      <c r="Q147" s="42"/>
-      <c r="R147" s="42"/>
-      <c r="S147" s="42"/>
-      <c r="T147" s="42"/>
-      <c r="U147" s="42"/>
-      <c r="V147" s="42"/>
-      <c r="W147" s="42"/>
-      <c r="X147" s="42"/>
-      <c r="Y147" s="42"/>
-      <c r="Z147" s="42"/>
-      <c r="AA147" s="42"/>
-      <c r="AB147" s="42"/>
-      <c r="AC147" s="42"/>
-      <c r="AD147" s="42"/>
-      <c r="AE147" s="42"/>
-      <c r="AF147" s="42"/>
-      <c r="AG147" s="42"/>
-      <c r="AH147" s="42"/>
+      <c r="K147" s="45"/>
+      <c r="L147" s="45"/>
+      <c r="M147" s="45"/>
+      <c r="N147" s="45"/>
+      <c r="O147" s="45"/>
+      <c r="P147" s="45"/>
+      <c r="Q147" s="45"/>
+      <c r="R147" s="45"/>
+      <c r="S147" s="45"/>
+      <c r="T147" s="45"/>
+      <c r="U147" s="45"/>
+      <c r="V147" s="45"/>
+      <c r="W147" s="45"/>
+      <c r="X147" s="45"/>
+      <c r="Y147" s="45"/>
+      <c r="Z147" s="45"/>
+      <c r="AA147" s="45"/>
+      <c r="AB147" s="45"/>
+      <c r="AC147" s="45"/>
+      <c r="AD147" s="45"/>
+      <c r="AE147" s="45"/>
+      <c r="AF147" s="45"/>
+      <c r="AG147" s="45"/>
+      <c r="AH147" s="45"/>
     </row>
     <row r="148" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="51"/>
@@ -21080,339 +21079,243 @@
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
       <c r="J148" s="51"/>
-      <c r="K148" s="42"/>
-      <c r="L148" s="42"/>
-      <c r="M148" s="42"/>
-      <c r="N148" s="42"/>
-      <c r="O148" s="42"/>
-      <c r="P148" s="42"/>
-      <c r="Q148" s="42"/>
-      <c r="R148" s="42"/>
-      <c r="S148" s="42"/>
-      <c r="T148" s="42"/>
-      <c r="U148" s="42"/>
-      <c r="V148" s="42"/>
-      <c r="W148" s="42"/>
-      <c r="X148" s="42"/>
-      <c r="Y148" s="42"/>
-      <c r="Z148" s="42"/>
-      <c r="AA148" s="42"/>
-      <c r="AB148" s="42"/>
-      <c r="AC148" s="42"/>
-      <c r="AD148" s="42"/>
-      <c r="AE148" s="42"/>
-      <c r="AF148" s="42"/>
-      <c r="AG148" s="42"/>
-      <c r="AH148" s="42"/>
+      <c r="K148" s="45"/>
+      <c r="L148" s="45"/>
+      <c r="M148" s="45"/>
+      <c r="N148" s="45"/>
+      <c r="O148" s="45"/>
+      <c r="P148" s="45"/>
+      <c r="Q148" s="45"/>
+      <c r="R148" s="45"/>
+      <c r="S148" s="45"/>
+      <c r="T148" s="45"/>
+      <c r="U148" s="45"/>
+      <c r="V148" s="45"/>
+      <c r="W148" s="45"/>
+      <c r="X148" s="45"/>
+      <c r="Y148" s="45"/>
+      <c r="Z148" s="45"/>
+      <c r="AA148" s="45"/>
+      <c r="AB148" s="45"/>
+      <c r="AC148" s="45"/>
+      <c r="AD148" s="45"/>
+      <c r="AE148" s="45"/>
+      <c r="AF148" s="45"/>
+      <c r="AG148" s="45"/>
+      <c r="AH148" s="45"/>
     </row>
     <row r="149" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="57"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="57"/>
-      <c r="H149" s="57"/>
-      <c r="I149" s="57"/>
-      <c r="J149" s="57"/>
-      <c r="K149" s="58"/>
-      <c r="L149" s="58"/>
-      <c r="M149" s="58"/>
-      <c r="N149" s="58"/>
-      <c r="O149" s="58"/>
-      <c r="P149" s="58"/>
-      <c r="Q149" s="58"/>
-      <c r="R149" s="58"/>
-      <c r="S149" s="58"/>
-      <c r="T149" s="58"/>
-      <c r="U149" s="58"/>
-      <c r="V149" s="58"/>
-      <c r="W149" s="58"/>
-      <c r="X149" s="58"/>
-      <c r="Y149" s="58"/>
-      <c r="Z149" s="58"/>
-      <c r="AA149" s="58"/>
-      <c r="AB149" s="58"/>
-      <c r="AC149" s="58"/>
-      <c r="AD149" s="58"/>
-      <c r="AE149" s="58"/>
-      <c r="AF149" s="58"/>
-      <c r="AG149" s="58"/>
-      <c r="AH149" s="58"/>
+      <c r="B149" s="49"/>
+      <c r="C149" s="49"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
+      <c r="I149" s="49"/>
+      <c r="J149" s="49"/>
+      <c r="K149" s="50"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
+      <c r="P149" s="50"/>
+      <c r="Q149" s="50"/>
+      <c r="R149" s="50"/>
+      <c r="S149" s="50"/>
+      <c r="T149" s="50"/>
+      <c r="U149" s="50"/>
+      <c r="V149" s="50"/>
+      <c r="W149" s="50"/>
+      <c r="X149" s="50"/>
+      <c r="Y149" s="50"/>
+      <c r="Z149" s="50"/>
+      <c r="AA149" s="50"/>
+      <c r="AB149" s="50"/>
+      <c r="AC149" s="50"/>
+      <c r="AD149" s="50"/>
+      <c r="AE149" s="50"/>
+      <c r="AF149" s="50"/>
+      <c r="AG149" s="50"/>
+      <c r="AH149" s="50"/>
     </row>
     <row r="150" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B150" s="59"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="59"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="59"/>
-      <c r="I150" s="59"/>
-      <c r="J150" s="59"/>
-      <c r="K150" s="60"/>
-      <c r="L150" s="60"/>
-      <c r="M150" s="60"/>
-      <c r="N150" s="60"/>
-      <c r="O150" s="60"/>
-      <c r="P150" s="60"/>
-      <c r="Q150" s="60"/>
-      <c r="R150" s="60"/>
-      <c r="S150" s="60"/>
-      <c r="T150" s="60"/>
-      <c r="U150" s="60"/>
-      <c r="V150" s="60"/>
-      <c r="W150" s="60"/>
-      <c r="X150" s="60"/>
-      <c r="Y150" s="60"/>
-      <c r="Z150" s="60"/>
-      <c r="AA150" s="60"/>
-      <c r="AB150" s="60"/>
-      <c r="AC150" s="60"/>
-      <c r="AD150" s="60"/>
-      <c r="AE150" s="60"/>
-      <c r="AF150" s="60"/>
-      <c r="AG150" s="60"/>
-      <c r="AH150" s="60"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="47"/>
+      <c r="K150" s="48"/>
+      <c r="L150" s="48"/>
+      <c r="M150" s="48"/>
+      <c r="N150" s="48"/>
+      <c r="O150" s="48"/>
+      <c r="P150" s="48"/>
+      <c r="Q150" s="48"/>
+      <c r="R150" s="48"/>
+      <c r="S150" s="48"/>
+      <c r="T150" s="48"/>
+      <c r="U150" s="48"/>
+      <c r="V150" s="48"/>
+      <c r="W150" s="48"/>
+      <c r="X150" s="48"/>
+      <c r="Y150" s="48"/>
+      <c r="Z150" s="48"/>
+      <c r="AA150" s="48"/>
+      <c r="AB150" s="48"/>
+      <c r="AC150" s="48"/>
+      <c r="AD150" s="48"/>
+      <c r="AE150" s="48"/>
+      <c r="AF150" s="48"/>
+      <c r="AG150" s="48"/>
+      <c r="AH150" s="48"/>
     </row>
     <row r="151" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B151" s="59"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="59"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="59"/>
-      <c r="J151" s="59"/>
-      <c r="K151" s="60"/>
-      <c r="L151" s="60"/>
-      <c r="M151" s="60"/>
-      <c r="N151" s="60"/>
-      <c r="O151" s="60"/>
-      <c r="P151" s="60"/>
-      <c r="Q151" s="60"/>
-      <c r="R151" s="60"/>
-      <c r="S151" s="60"/>
-      <c r="T151" s="60"/>
-      <c r="U151" s="60"/>
-      <c r="V151" s="60"/>
-      <c r="W151" s="60"/>
-      <c r="X151" s="60"/>
-      <c r="Y151" s="60"/>
-      <c r="Z151" s="60"/>
-      <c r="AA151" s="60"/>
-      <c r="AB151" s="60"/>
-      <c r="AC151" s="60"/>
-      <c r="AD151" s="60"/>
-      <c r="AE151" s="60"/>
-      <c r="AF151" s="60"/>
-      <c r="AG151" s="60"/>
-      <c r="AH151" s="60"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="47"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="47"/>
+      <c r="I151" s="47"/>
+      <c r="J151" s="47"/>
+      <c r="K151" s="48"/>
+      <c r="L151" s="48"/>
+      <c r="M151" s="48"/>
+      <c r="N151" s="48"/>
+      <c r="O151" s="48"/>
+      <c r="P151" s="48"/>
+      <c r="Q151" s="48"/>
+      <c r="R151" s="48"/>
+      <c r="S151" s="48"/>
+      <c r="T151" s="48"/>
+      <c r="U151" s="48"/>
+      <c r="V151" s="48"/>
+      <c r="W151" s="48"/>
+      <c r="X151" s="48"/>
+      <c r="Y151" s="48"/>
+      <c r="Z151" s="48"/>
+      <c r="AA151" s="48"/>
+      <c r="AB151" s="48"/>
+      <c r="AC151" s="48"/>
+      <c r="AD151" s="48"/>
+      <c r="AE151" s="48"/>
+      <c r="AF151" s="48"/>
+      <c r="AG151" s="48"/>
+      <c r="AH151" s="48"/>
     </row>
     <row r="152" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B152" s="59"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="59"/>
-      <c r="J152" s="59"/>
-      <c r="K152" s="60"/>
-      <c r="L152" s="60"/>
-      <c r="M152" s="60"/>
-      <c r="N152" s="60"/>
-      <c r="O152" s="60"/>
-      <c r="P152" s="60"/>
-      <c r="Q152" s="60"/>
-      <c r="R152" s="60"/>
-      <c r="S152" s="60"/>
-      <c r="T152" s="60"/>
-      <c r="U152" s="60"/>
-      <c r="V152" s="60"/>
-      <c r="W152" s="60"/>
-      <c r="X152" s="60"/>
-      <c r="Y152" s="60"/>
-      <c r="Z152" s="60"/>
-      <c r="AA152" s="60"/>
-      <c r="AB152" s="60"/>
-      <c r="AC152" s="60"/>
-      <c r="AD152" s="60"/>
-      <c r="AE152" s="60"/>
-      <c r="AF152" s="60"/>
-      <c r="AG152" s="60"/>
-      <c r="AH152" s="60"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="47"/>
+      <c r="I152" s="47"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="48"/>
+      <c r="L152" s="48"/>
+      <c r="M152" s="48"/>
+      <c r="N152" s="48"/>
+      <c r="O152" s="48"/>
+      <c r="P152" s="48"/>
+      <c r="Q152" s="48"/>
+      <c r="R152" s="48"/>
+      <c r="S152" s="48"/>
+      <c r="T152" s="48"/>
+      <c r="U152" s="48"/>
+      <c r="V152" s="48"/>
+      <c r="W152" s="48"/>
+      <c r="X152" s="48"/>
+      <c r="Y152" s="48"/>
+      <c r="Z152" s="48"/>
+      <c r="AA152" s="48"/>
+      <c r="AB152" s="48"/>
+      <c r="AC152" s="48"/>
+      <c r="AD152" s="48"/>
+      <c r="AE152" s="48"/>
+      <c r="AF152" s="48"/>
+      <c r="AG152" s="48"/>
+      <c r="AH152" s="48"/>
     </row>
     <row r="153" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="59"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59"/>
-      <c r="H153" s="59"/>
-      <c r="I153" s="59"/>
-      <c r="J153" s="59"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
-      <c r="M153" s="60"/>
-      <c r="N153" s="60"/>
-      <c r="O153" s="60"/>
-      <c r="P153" s="60"/>
-      <c r="Q153" s="60"/>
-      <c r="R153" s="60"/>
-      <c r="S153" s="60"/>
-      <c r="T153" s="60"/>
-      <c r="U153" s="60"/>
-      <c r="V153" s="60"/>
-      <c r="W153" s="60"/>
-      <c r="X153" s="60"/>
-      <c r="Y153" s="60"/>
-      <c r="Z153" s="60"/>
-      <c r="AA153" s="60"/>
-      <c r="AB153" s="60"/>
-      <c r="AC153" s="60"/>
-      <c r="AD153" s="60"/>
-      <c r="AE153" s="60"/>
-      <c r="AF153" s="60"/>
-      <c r="AG153" s="60"/>
-      <c r="AH153" s="60"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="48"/>
+      <c r="L153" s="48"/>
+      <c r="M153" s="48"/>
+      <c r="N153" s="48"/>
+      <c r="O153" s="48"/>
+      <c r="P153" s="48"/>
+      <c r="Q153" s="48"/>
+      <c r="R153" s="48"/>
+      <c r="S153" s="48"/>
+      <c r="T153" s="48"/>
+      <c r="U153" s="48"/>
+      <c r="V153" s="48"/>
+      <c r="W153" s="48"/>
+      <c r="X153" s="48"/>
+      <c r="Y153" s="48"/>
+      <c r="Z153" s="48"/>
+      <c r="AA153" s="48"/>
+      <c r="AB153" s="48"/>
+      <c r="AC153" s="48"/>
+      <c r="AD153" s="48"/>
+      <c r="AE153" s="48"/>
+      <c r="AF153" s="48"/>
+      <c r="AG153" s="48"/>
+      <c r="AH153" s="48"/>
     </row>
     <row r="154" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59"/>
-      <c r="H154" s="59"/>
-      <c r="I154" s="59"/>
-      <c r="J154" s="59"/>
-      <c r="K154" s="60"/>
-      <c r="L154" s="60"/>
-      <c r="M154" s="60"/>
-      <c r="N154" s="60"/>
-      <c r="O154" s="60"/>
-      <c r="P154" s="60"/>
-      <c r="Q154" s="60"/>
-      <c r="R154" s="60"/>
-      <c r="S154" s="60"/>
-      <c r="T154" s="60"/>
-      <c r="U154" s="60"/>
-      <c r="V154" s="60"/>
-      <c r="W154" s="60"/>
-      <c r="X154" s="60"/>
-      <c r="Y154" s="60"/>
-      <c r="Z154" s="60"/>
-      <c r="AA154" s="60"/>
-      <c r="AB154" s="60"/>
-      <c r="AC154" s="60"/>
-      <c r="AD154" s="60"/>
-      <c r="AE154" s="60"/>
-      <c r="AF154" s="60"/>
-      <c r="AG154" s="60"/>
-      <c r="AH154" s="60"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="47"/>
+      <c r="I154" s="47"/>
+      <c r="J154" s="47"/>
+      <c r="K154" s="48"/>
+      <c r="L154" s="48"/>
+      <c r="M154" s="48"/>
+      <c r="N154" s="48"/>
+      <c r="O154" s="48"/>
+      <c r="P154" s="48"/>
+      <c r="Q154" s="48"/>
+      <c r="R154" s="48"/>
+      <c r="S154" s="48"/>
+      <c r="T154" s="48"/>
+      <c r="U154" s="48"/>
+      <c r="V154" s="48"/>
+      <c r="W154" s="48"/>
+      <c r="X154" s="48"/>
+      <c r="Y154" s="48"/>
+      <c r="Z154" s="48"/>
+      <c r="AA154" s="48"/>
+      <c r="AB154" s="48"/>
+      <c r="AC154" s="48"/>
+      <c r="AD154" s="48"/>
+      <c r="AE154" s="48"/>
+      <c r="AF154" s="48"/>
+      <c r="AG154" s="48"/>
+      <c r="AH154" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="K153:P153"/>
-    <mergeCell ref="Q153:Y153"/>
-    <mergeCell ref="Z153:AH153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="K154:P154"/>
-    <mergeCell ref="Q154:Y154"/>
-    <mergeCell ref="Z154:AH154"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:P151"/>
-    <mergeCell ref="Q151:Y151"/>
-    <mergeCell ref="Z151:AH151"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:P152"/>
-    <mergeCell ref="Q152:Y152"/>
-    <mergeCell ref="Z152:AH152"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:P149"/>
-    <mergeCell ref="Q149:Y149"/>
-    <mergeCell ref="Z149:AH149"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:P150"/>
-    <mergeCell ref="Q150:Y150"/>
-    <mergeCell ref="Z150:AH150"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:P147"/>
-    <mergeCell ref="Q147:Y147"/>
-    <mergeCell ref="Z147:AH147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:P148"/>
-    <mergeCell ref="Q148:Y148"/>
-    <mergeCell ref="Z148:AH148"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:P145"/>
-    <mergeCell ref="Q145:Y145"/>
-    <mergeCell ref="Z145:AH145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:P146"/>
-    <mergeCell ref="Q146:Y146"/>
-    <mergeCell ref="Z146:AH146"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:P143"/>
-    <mergeCell ref="Q143:Y143"/>
-    <mergeCell ref="Z143:AH143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:P144"/>
-    <mergeCell ref="Q144:Y144"/>
-    <mergeCell ref="Z144:AH144"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:P141"/>
-    <mergeCell ref="Q141:Y141"/>
-    <mergeCell ref="Z141:AH141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:P142"/>
-    <mergeCell ref="Q142:Y142"/>
-    <mergeCell ref="Z142:AH142"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="K139:P139"/>
-    <mergeCell ref="Q139:Y139"/>
-    <mergeCell ref="Z139:AH139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="K140:P140"/>
-    <mergeCell ref="Q140:Y140"/>
-    <mergeCell ref="Z140:AH140"/>
     <mergeCell ref="Z136:AH136"/>
     <mergeCell ref="B137:E137"/>
     <mergeCell ref="F137:G137"/>
@@ -21431,6 +21334,102 @@
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="K136:P136"/>
     <mergeCell ref="Q136:Y136"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="K139:P139"/>
+    <mergeCell ref="Q139:Y139"/>
+    <mergeCell ref="Z139:AH139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="K140:P140"/>
+    <mergeCell ref="Q140:Y140"/>
+    <mergeCell ref="Z140:AH140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="K141:P141"/>
+    <mergeCell ref="Q141:Y141"/>
+    <mergeCell ref="Z141:AH141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="K142:P142"/>
+    <mergeCell ref="Q142:Y142"/>
+    <mergeCell ref="Z142:AH142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:P143"/>
+    <mergeCell ref="Q143:Y143"/>
+    <mergeCell ref="Z143:AH143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:P144"/>
+    <mergeCell ref="Q144:Y144"/>
+    <mergeCell ref="Z144:AH144"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:P145"/>
+    <mergeCell ref="Q145:Y145"/>
+    <mergeCell ref="Z145:AH145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:P146"/>
+    <mergeCell ref="Q146:Y146"/>
+    <mergeCell ref="Z146:AH146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="K147:P147"/>
+    <mergeCell ref="Q147:Y147"/>
+    <mergeCell ref="Z147:AH147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="K148:P148"/>
+    <mergeCell ref="Q148:Y148"/>
+    <mergeCell ref="Z148:AH148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:P149"/>
+    <mergeCell ref="Q149:Y149"/>
+    <mergeCell ref="Z149:AH149"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:P150"/>
+    <mergeCell ref="Q150:Y150"/>
+    <mergeCell ref="Z150:AH150"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:P151"/>
+    <mergeCell ref="Q151:Y151"/>
+    <mergeCell ref="Z151:AH151"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:P152"/>
+    <mergeCell ref="Q152:Y152"/>
+    <mergeCell ref="Z152:AH152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:P153"/>
+    <mergeCell ref="Q153:Y153"/>
+    <mergeCell ref="Z153:AH153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:P154"/>
+    <mergeCell ref="Q154:Y154"/>
+    <mergeCell ref="Z154:AH154"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/成果物サンプル＆ガイド/DC-201_ステークホルダー定義(サンプル＆ガイド).xlsx
+++ b/docs/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/成果物サンプル＆ガイド/DC-201_ステークホルダー定義(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1177,6 +1177,16 @@
   </si>
   <si>
     <t>2018年08月29日</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -1286,13 +1296,6 @@
     </rPh>
     <rPh sb="63" eb="64">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1796,6 +1799,9 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,22 +1811,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,23 +1838,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18322,7 +18325,9 @@
       <c r="G31" s="31"/>
       <c r="H31" s="27"/>
       <c r="J31" s="32"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="33" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="6:18" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F32" s="27"/>
@@ -18381,24 +18386,20 @@
     </row>
     <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
       <c r="Q38" s="39"/>
       <c r="R38" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
+    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18877,7 +18878,7 @@
     <hyperlink ref="E38" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -18903,7 +18904,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -18987,44 +18988,44 @@
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="42" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="42" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="45"/>
     </row>
     <row r="24" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6">
@@ -19071,42 +19072,42 @@
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
     </row>
     <row r="26" spans="2:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
@@ -19164,126 +19165,126 @@
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="42" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="42" t="s">
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="43"/>
-      <c r="AH32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="45"/>
     </row>
     <row r="33" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
     </row>
     <row r="34" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
@@ -19328,7 +19329,7 @@
     <row r="37" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -19341,44 +19342,44 @@
       <c r="B41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="42" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="42" t="s">
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="45"/>
     </row>
     <row r="42" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
@@ -19387,85 +19388,85 @@
       <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45" t="s">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45" t="s">
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
     </row>
     <row r="43" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42"/>
     </row>
     <row r="44" spans="1:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
@@ -19519,44 +19520,44 @@
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="42" t="s">
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="42" t="s">
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="43"/>
-      <c r="AC50" s="43"/>
-      <c r="AD50" s="43"/>
-      <c r="AE50" s="43"/>
-      <c r="AF50" s="43"/>
-      <c r="AG50" s="43"/>
-      <c r="AH50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="45"/>
     </row>
     <row r="51" spans="1:35" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6">
@@ -19603,42 +19604,42 @@
       <c r="B52" s="4">
         <v>2</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45" t="s">
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="45"/>
-      <c r="AF52" s="45"/>
-      <c r="AG52" s="45"/>
-      <c r="AH52" s="45"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="42"/>
     </row>
     <row r="53" spans="1:35" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:35" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19661,17 +19662,15 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I34:Y34"/>
-    <mergeCell ref="Z34:AH34"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:Y50"/>
-    <mergeCell ref="Z50:AH50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:Y51"/>
-    <mergeCell ref="Z51:AH51"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:Y41"/>
-    <mergeCell ref="Z41:AH41"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="I52:Y52"/>
     <mergeCell ref="Z52:AH52"/>
@@ -19688,15 +19687,17 @@
     <mergeCell ref="I43:Y43"/>
     <mergeCell ref="Z43:AH43"/>
     <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:Y51"/>
+    <mergeCell ref="Z51:AH51"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:Y41"/>
+    <mergeCell ref="Z41:AH41"/>
+    <mergeCell ref="I34:Y34"/>
+    <mergeCell ref="Z34:AH34"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:Y50"/>
+    <mergeCell ref="Z50:AH50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -20590,98 +20591,98 @@
       </c>
     </row>
     <row r="136" spans="1:34" s="19" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56" t="s">
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G136" s="56"/>
-      <c r="H136" s="60" t="s">
+      <c r="G136" s="47"/>
+      <c r="H136" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="I136" s="56"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="56" t="s">
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L136" s="56"/>
-      <c r="M136" s="56"/>
-      <c r="N136" s="56"/>
-      <c r="O136" s="56"/>
-      <c r="P136" s="56"/>
-      <c r="Q136" s="56" t="s">
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="R136" s="56"/>
-      <c r="S136" s="56"/>
-      <c r="T136" s="56"/>
-      <c r="U136" s="56"/>
-      <c r="V136" s="56"/>
-      <c r="W136" s="56"/>
-      <c r="X136" s="56"/>
-      <c r="Y136" s="56"/>
-      <c r="Z136" s="56" t="s">
+      <c r="R136" s="47"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="47"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="47"/>
+      <c r="Y136" s="47"/>
+      <c r="Z136" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AA136" s="56"/>
-      <c r="AB136" s="56"/>
-      <c r="AC136" s="56"/>
-      <c r="AD136" s="56"/>
-      <c r="AE136" s="56"/>
-      <c r="AF136" s="56"/>
-      <c r="AG136" s="56"/>
-      <c r="AH136" s="56"/>
+      <c r="AA136" s="47"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="47"/>
+      <c r="AE136" s="47"/>
+      <c r="AF136" s="47"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
     </row>
     <row r="137" spans="1:34" s="19" customFormat="1" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="57" t="s">
+      <c r="B137" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57" t="s">
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57" t="s">
+      <c r="G137" s="48"/>
+      <c r="H137" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I137" s="57"/>
-      <c r="J137" s="57"/>
-      <c r="K137" s="58" t="s">
+      <c r="I137" s="48"/>
+      <c r="J137" s="48"/>
+      <c r="K137" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="L137" s="58"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="58"/>
-      <c r="O137" s="58"/>
-      <c r="P137" s="58"/>
-      <c r="Q137" s="58" t="s">
+      <c r="L137" s="49"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="49"/>
+      <c r="O137" s="49"/>
+      <c r="P137" s="49"/>
+      <c r="Q137" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="R137" s="58"/>
-      <c r="S137" s="58"/>
-      <c r="T137" s="58"/>
-      <c r="U137" s="58"/>
-      <c r="V137" s="58"/>
-      <c r="W137" s="58"/>
-      <c r="X137" s="58"/>
-      <c r="Y137" s="58"/>
-      <c r="Z137" s="58" t="s">
+      <c r="R137" s="49"/>
+      <c r="S137" s="49"/>
+      <c r="T137" s="49"/>
+      <c r="U137" s="49"/>
+      <c r="V137" s="49"/>
+      <c r="W137" s="49"/>
+      <c r="X137" s="49"/>
+      <c r="Y137" s="49"/>
+      <c r="Z137" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="AA137" s="59"/>
-      <c r="AB137" s="59"/>
-      <c r="AC137" s="59"/>
-      <c r="AD137" s="59"/>
-      <c r="AE137" s="59"/>
-      <c r="AF137" s="59"/>
-      <c r="AG137" s="59"/>
-      <c r="AH137" s="59"/>
+      <c r="AA137" s="50"/>
+      <c r="AB137" s="50"/>
+      <c r="AC137" s="50"/>
+      <c r="AD137" s="50"/>
+      <c r="AE137" s="50"/>
+      <c r="AF137" s="50"/>
+      <c r="AG137" s="50"/>
+      <c r="AH137" s="50"/>
     </row>
     <row r="138" spans="1:34" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="51" t="s">
@@ -20699,25 +20700,25 @@
       </c>
       <c r="I138" s="51"/>
       <c r="J138" s="51"/>
-      <c r="K138" s="45" t="s">
+      <c r="K138" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L138" s="45"/>
-      <c r="M138" s="45"/>
-      <c r="N138" s="45"/>
-      <c r="O138" s="45"/>
-      <c r="P138" s="45"/>
-      <c r="Q138" s="45" t="s">
+      <c r="L138" s="42"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="42"/>
+      <c r="O138" s="42"/>
+      <c r="P138" s="42"/>
+      <c r="Q138" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="R138" s="45"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="45"/>
-      <c r="U138" s="45"/>
-      <c r="V138" s="45"/>
-      <c r="W138" s="45"/>
-      <c r="X138" s="45"/>
-      <c r="Y138" s="45"/>
+      <c r="R138" s="42"/>
+      <c r="S138" s="42"/>
+      <c r="T138" s="42"/>
+      <c r="U138" s="42"/>
+      <c r="V138" s="42"/>
+      <c r="W138" s="42"/>
+      <c r="X138" s="42"/>
+      <c r="Y138" s="42"/>
       <c r="Z138" s="52" t="s">
         <v>44</v>
       </c>
@@ -20746,36 +20747,36 @@
       </c>
       <c r="I139" s="51"/>
       <c r="J139" s="51"/>
-      <c r="K139" s="45" t="s">
+      <c r="K139" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="L139" s="45"/>
-      <c r="M139" s="45"/>
-      <c r="N139" s="45"/>
-      <c r="O139" s="45"/>
-      <c r="P139" s="45"/>
-      <c r="Q139" s="45" t="s">
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="42"/>
+      <c r="P139" s="42"/>
+      <c r="Q139" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="R139" s="45"/>
-      <c r="S139" s="45"/>
-      <c r="T139" s="45"/>
-      <c r="U139" s="45"/>
-      <c r="V139" s="45"/>
-      <c r="W139" s="45"/>
-      <c r="X139" s="45"/>
-      <c r="Y139" s="45"/>
-      <c r="Z139" s="45" t="s">
+      <c r="R139" s="42"/>
+      <c r="S139" s="42"/>
+      <c r="T139" s="42"/>
+      <c r="U139" s="42"/>
+      <c r="V139" s="42"/>
+      <c r="W139" s="42"/>
+      <c r="X139" s="42"/>
+      <c r="Y139" s="42"/>
+      <c r="Z139" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="AA139" s="55"/>
-      <c r="AB139" s="55"/>
-      <c r="AC139" s="55"/>
-      <c r="AD139" s="55"/>
-      <c r="AE139" s="55"/>
-      <c r="AF139" s="55"/>
-      <c r="AG139" s="55"/>
-      <c r="AH139" s="55"/>
+      <c r="AA139" s="56"/>
+      <c r="AB139" s="56"/>
+      <c r="AC139" s="56"/>
+      <c r="AD139" s="56"/>
+      <c r="AE139" s="56"/>
+      <c r="AF139" s="56"/>
+      <c r="AG139" s="56"/>
+      <c r="AH139" s="56"/>
     </row>
     <row r="140" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="51" t="s">
@@ -20793,36 +20794,36 @@
       </c>
       <c r="I140" s="51"/>
       <c r="J140" s="51"/>
-      <c r="K140" s="45" t="s">
+      <c r="K140" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="L140" s="45"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="45"/>
-      <c r="P140" s="45"/>
-      <c r="Q140" s="45" t="s">
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="42"/>
+      <c r="O140" s="42"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="R140" s="45"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
-      <c r="U140" s="45"/>
-      <c r="V140" s="45"/>
-      <c r="W140" s="45"/>
-      <c r="X140" s="45"/>
-      <c r="Y140" s="45"/>
-      <c r="Z140" s="45" t="s">
+      <c r="R140" s="42"/>
+      <c r="S140" s="42"/>
+      <c r="T140" s="42"/>
+      <c r="U140" s="42"/>
+      <c r="V140" s="42"/>
+      <c r="W140" s="42"/>
+      <c r="X140" s="42"/>
+      <c r="Y140" s="42"/>
+      <c r="Z140" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AA140" s="45"/>
-      <c r="AB140" s="45"/>
-      <c r="AC140" s="45"/>
-      <c r="AD140" s="45"/>
-      <c r="AE140" s="45"/>
-      <c r="AF140" s="45"/>
-      <c r="AG140" s="45"/>
-      <c r="AH140" s="45"/>
+      <c r="AA140" s="42"/>
+      <c r="AB140" s="42"/>
+      <c r="AC140" s="42"/>
+      <c r="AD140" s="42"/>
+      <c r="AE140" s="42"/>
+      <c r="AF140" s="42"/>
+      <c r="AG140" s="42"/>
+      <c r="AH140" s="42"/>
     </row>
     <row r="141" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="51"/>
@@ -20834,30 +20835,30 @@
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
       <c r="J141" s="51"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="45"/>
-      <c r="P141" s="45"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="45"/>
-      <c r="S141" s="45"/>
-      <c r="T141" s="45"/>
-      <c r="U141" s="45"/>
-      <c r="V141" s="45"/>
-      <c r="W141" s="45"/>
-      <c r="X141" s="45"/>
-      <c r="Y141" s="45"/>
-      <c r="Z141" s="45"/>
-      <c r="AA141" s="45"/>
-      <c r="AB141" s="45"/>
-      <c r="AC141" s="45"/>
-      <c r="AD141" s="45"/>
-      <c r="AE141" s="45"/>
-      <c r="AF141" s="45"/>
-      <c r="AG141" s="45"/>
-      <c r="AH141" s="45"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="O141" s="42"/>
+      <c r="P141" s="42"/>
+      <c r="Q141" s="42"/>
+      <c r="R141" s="42"/>
+      <c r="S141" s="42"/>
+      <c r="T141" s="42"/>
+      <c r="U141" s="42"/>
+      <c r="V141" s="42"/>
+      <c r="W141" s="42"/>
+      <c r="X141" s="42"/>
+      <c r="Y141" s="42"/>
+      <c r="Z141" s="42"/>
+      <c r="AA141" s="42"/>
+      <c r="AB141" s="42"/>
+      <c r="AC141" s="42"/>
+      <c r="AD141" s="42"/>
+      <c r="AE141" s="42"/>
+      <c r="AF141" s="42"/>
+      <c r="AG141" s="42"/>
+      <c r="AH141" s="42"/>
     </row>
     <row r="142" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="51"/>
@@ -20869,30 +20870,30 @@
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
       <c r="J142" s="51"/>
-      <c r="K142" s="45"/>
-      <c r="L142" s="45"/>
-      <c r="M142" s="45"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="45"/>
-      <c r="P142" s="45"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="45"/>
-      <c r="S142" s="45"/>
-      <c r="T142" s="45"/>
-      <c r="U142" s="45"/>
-      <c r="V142" s="45"/>
-      <c r="W142" s="45"/>
-      <c r="X142" s="45"/>
-      <c r="Y142" s="45"/>
-      <c r="Z142" s="45"/>
-      <c r="AA142" s="55"/>
-      <c r="AB142" s="55"/>
-      <c r="AC142" s="55"/>
-      <c r="AD142" s="55"/>
-      <c r="AE142" s="55"/>
-      <c r="AF142" s="55"/>
-      <c r="AG142" s="55"/>
-      <c r="AH142" s="55"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="42"/>
+      <c r="M142" s="42"/>
+      <c r="N142" s="42"/>
+      <c r="O142" s="42"/>
+      <c r="P142" s="42"/>
+      <c r="Q142" s="42"/>
+      <c r="R142" s="42"/>
+      <c r="S142" s="42"/>
+      <c r="T142" s="42"/>
+      <c r="U142" s="42"/>
+      <c r="V142" s="42"/>
+      <c r="W142" s="42"/>
+      <c r="X142" s="42"/>
+      <c r="Y142" s="42"/>
+      <c r="Z142" s="42"/>
+      <c r="AA142" s="56"/>
+      <c r="AB142" s="56"/>
+      <c r="AC142" s="56"/>
+      <c r="AD142" s="56"/>
+      <c r="AE142" s="56"/>
+      <c r="AF142" s="56"/>
+      <c r="AG142" s="56"/>
+      <c r="AH142" s="56"/>
     </row>
     <row r="143" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="51"/>
@@ -20904,21 +20905,21 @@
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="51"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="45"/>
-      <c r="M143" s="45"/>
-      <c r="N143" s="45"/>
-      <c r="O143" s="45"/>
-      <c r="P143" s="45"/>
-      <c r="Q143" s="45"/>
-      <c r="R143" s="45"/>
-      <c r="S143" s="45"/>
-      <c r="T143" s="45"/>
-      <c r="U143" s="45"/>
-      <c r="V143" s="45"/>
-      <c r="W143" s="45"/>
-      <c r="X143" s="45"/>
-      <c r="Y143" s="45"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="42"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="42"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
+      <c r="R143" s="42"/>
+      <c r="S143" s="42"/>
+      <c r="T143" s="42"/>
+      <c r="U143" s="42"/>
+      <c r="V143" s="42"/>
+      <c r="W143" s="42"/>
+      <c r="X143" s="42"/>
+      <c r="Y143" s="42"/>
       <c r="Z143" s="52"/>
       <c r="AA143" s="53"/>
       <c r="AB143" s="53"/>
@@ -20939,30 +20940,30 @@
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
       <c r="J144" s="51"/>
-      <c r="K144" s="45"/>
-      <c r="L144" s="45"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="45"/>
-      <c r="O144" s="45"/>
-      <c r="P144" s="45"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="45"/>
-      <c r="S144" s="45"/>
-      <c r="T144" s="45"/>
-      <c r="U144" s="45"/>
-      <c r="V144" s="45"/>
-      <c r="W144" s="45"/>
-      <c r="X144" s="45"/>
-      <c r="Y144" s="45"/>
-      <c r="Z144" s="45"/>
-      <c r="AA144" s="45"/>
-      <c r="AB144" s="45"/>
-      <c r="AC144" s="45"/>
-      <c r="AD144" s="45"/>
-      <c r="AE144" s="45"/>
-      <c r="AF144" s="45"/>
-      <c r="AG144" s="45"/>
-      <c r="AH144" s="45"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="42"/>
+      <c r="O144" s="42"/>
+      <c r="P144" s="42"/>
+      <c r="Q144" s="42"/>
+      <c r="R144" s="42"/>
+      <c r="S144" s="42"/>
+      <c r="T144" s="42"/>
+      <c r="U144" s="42"/>
+      <c r="V144" s="42"/>
+      <c r="W144" s="42"/>
+      <c r="X144" s="42"/>
+      <c r="Y144" s="42"/>
+      <c r="Z144" s="42"/>
+      <c r="AA144" s="42"/>
+      <c r="AB144" s="42"/>
+      <c r="AC144" s="42"/>
+      <c r="AD144" s="42"/>
+      <c r="AE144" s="42"/>
+      <c r="AF144" s="42"/>
+      <c r="AG144" s="42"/>
+      <c r="AH144" s="42"/>
     </row>
     <row r="145" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="51"/>
@@ -20974,30 +20975,30 @@
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
       <c r="J145" s="51"/>
-      <c r="K145" s="45"/>
-      <c r="L145" s="45"/>
-      <c r="M145" s="45"/>
-      <c r="N145" s="45"/>
-      <c r="O145" s="45"/>
-      <c r="P145" s="45"/>
-      <c r="Q145" s="45"/>
-      <c r="R145" s="45"/>
-      <c r="S145" s="45"/>
-      <c r="T145" s="45"/>
-      <c r="U145" s="45"/>
-      <c r="V145" s="45"/>
-      <c r="W145" s="45"/>
-      <c r="X145" s="45"/>
-      <c r="Y145" s="45"/>
-      <c r="Z145" s="45"/>
-      <c r="AA145" s="45"/>
-      <c r="AB145" s="45"/>
-      <c r="AC145" s="45"/>
-      <c r="AD145" s="45"/>
-      <c r="AE145" s="45"/>
-      <c r="AF145" s="45"/>
-      <c r="AG145" s="45"/>
-      <c r="AH145" s="45"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="42"/>
+      <c r="O145" s="42"/>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="42"/>
+      <c r="R145" s="42"/>
+      <c r="S145" s="42"/>
+      <c r="T145" s="42"/>
+      <c r="U145" s="42"/>
+      <c r="V145" s="42"/>
+      <c r="W145" s="42"/>
+      <c r="X145" s="42"/>
+      <c r="Y145" s="42"/>
+      <c r="Z145" s="42"/>
+      <c r="AA145" s="42"/>
+      <c r="AB145" s="42"/>
+      <c r="AC145" s="42"/>
+      <c r="AD145" s="42"/>
+      <c r="AE145" s="42"/>
+      <c r="AF145" s="42"/>
+      <c r="AG145" s="42"/>
+      <c r="AH145" s="42"/>
     </row>
     <row r="146" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="51"/>
@@ -21009,30 +21010,30 @@
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
       <c r="J146" s="51"/>
-      <c r="K146" s="45"/>
-      <c r="L146" s="45"/>
-      <c r="M146" s="45"/>
-      <c r="N146" s="45"/>
-      <c r="O146" s="45"/>
-      <c r="P146" s="45"/>
-      <c r="Q146" s="45"/>
-      <c r="R146" s="45"/>
-      <c r="S146" s="45"/>
-      <c r="T146" s="45"/>
-      <c r="U146" s="45"/>
-      <c r="V146" s="45"/>
-      <c r="W146" s="45"/>
-      <c r="X146" s="45"/>
-      <c r="Y146" s="45"/>
-      <c r="Z146" s="45"/>
-      <c r="AA146" s="45"/>
-      <c r="AB146" s="45"/>
-      <c r="AC146" s="45"/>
-      <c r="AD146" s="45"/>
-      <c r="AE146" s="45"/>
-      <c r="AF146" s="45"/>
-      <c r="AG146" s="45"/>
-      <c r="AH146" s="45"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="42"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="42"/>
+      <c r="Q146" s="42"/>
+      <c r="R146" s="42"/>
+      <c r="S146" s="42"/>
+      <c r="T146" s="42"/>
+      <c r="U146" s="42"/>
+      <c r="V146" s="42"/>
+      <c r="W146" s="42"/>
+      <c r="X146" s="42"/>
+      <c r="Y146" s="42"/>
+      <c r="Z146" s="42"/>
+      <c r="AA146" s="42"/>
+      <c r="AB146" s="42"/>
+      <c r="AC146" s="42"/>
+      <c r="AD146" s="42"/>
+      <c r="AE146" s="42"/>
+      <c r="AF146" s="42"/>
+      <c r="AG146" s="42"/>
+      <c r="AH146" s="42"/>
     </row>
     <row r="147" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="51"/>
@@ -21044,30 +21045,30 @@
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
       <c r="J147" s="51"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="45"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45"/>
-      <c r="T147" s="45"/>
-      <c r="U147" s="45"/>
-      <c r="V147" s="45"/>
-      <c r="W147" s="45"/>
-      <c r="X147" s="45"/>
-      <c r="Y147" s="45"/>
-      <c r="Z147" s="45"/>
-      <c r="AA147" s="45"/>
-      <c r="AB147" s="45"/>
-      <c r="AC147" s="45"/>
-      <c r="AD147" s="45"/>
-      <c r="AE147" s="45"/>
-      <c r="AF147" s="45"/>
-      <c r="AG147" s="45"/>
-      <c r="AH147" s="45"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="42"/>
+      <c r="O147" s="42"/>
+      <c r="P147" s="42"/>
+      <c r="Q147" s="42"/>
+      <c r="R147" s="42"/>
+      <c r="S147" s="42"/>
+      <c r="T147" s="42"/>
+      <c r="U147" s="42"/>
+      <c r="V147" s="42"/>
+      <c r="W147" s="42"/>
+      <c r="X147" s="42"/>
+      <c r="Y147" s="42"/>
+      <c r="Z147" s="42"/>
+      <c r="AA147" s="42"/>
+      <c r="AB147" s="42"/>
+      <c r="AC147" s="42"/>
+      <c r="AD147" s="42"/>
+      <c r="AE147" s="42"/>
+      <c r="AF147" s="42"/>
+      <c r="AG147" s="42"/>
+      <c r="AH147" s="42"/>
     </row>
     <row r="148" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="51"/>
@@ -21079,243 +21080,339 @@
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
       <c r="J148" s="51"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="45"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="45"/>
-      <c r="S148" s="45"/>
-      <c r="T148" s="45"/>
-      <c r="U148" s="45"/>
-      <c r="V148" s="45"/>
-      <c r="W148" s="45"/>
-      <c r="X148" s="45"/>
-      <c r="Y148" s="45"/>
-      <c r="Z148" s="45"/>
-      <c r="AA148" s="45"/>
-      <c r="AB148" s="45"/>
-      <c r="AC148" s="45"/>
-      <c r="AD148" s="45"/>
-      <c r="AE148" s="45"/>
-      <c r="AF148" s="45"/>
-      <c r="AG148" s="45"/>
-      <c r="AH148" s="45"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
+      <c r="R148" s="42"/>
+      <c r="S148" s="42"/>
+      <c r="T148" s="42"/>
+      <c r="U148" s="42"/>
+      <c r="V148" s="42"/>
+      <c r="W148" s="42"/>
+      <c r="X148" s="42"/>
+      <c r="Y148" s="42"/>
+      <c r="Z148" s="42"/>
+      <c r="AA148" s="42"/>
+      <c r="AB148" s="42"/>
+      <c r="AC148" s="42"/>
+      <c r="AD148" s="42"/>
+      <c r="AE148" s="42"/>
+      <c r="AF148" s="42"/>
+      <c r="AG148" s="42"/>
+      <c r="AH148" s="42"/>
     </row>
     <row r="149" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B149" s="49"/>
-      <c r="C149" s="49"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="50"/>
-      <c r="L149" s="50"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="50"/>
-      <c r="O149" s="50"/>
-      <c r="P149" s="50"/>
-      <c r="Q149" s="50"/>
-      <c r="R149" s="50"/>
-      <c r="S149" s="50"/>
-      <c r="T149" s="50"/>
-      <c r="U149" s="50"/>
-      <c r="V149" s="50"/>
-      <c r="W149" s="50"/>
-      <c r="X149" s="50"/>
-      <c r="Y149" s="50"/>
-      <c r="Z149" s="50"/>
-      <c r="AA149" s="50"/>
-      <c r="AB149" s="50"/>
-      <c r="AC149" s="50"/>
-      <c r="AD149" s="50"/>
-      <c r="AE149" s="50"/>
-      <c r="AF149" s="50"/>
-      <c r="AG149" s="50"/>
-      <c r="AH149" s="50"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="58"/>
+      <c r="L149" s="58"/>
+      <c r="M149" s="58"/>
+      <c r="N149" s="58"/>
+      <c r="O149" s="58"/>
+      <c r="P149" s="58"/>
+      <c r="Q149" s="58"/>
+      <c r="R149" s="58"/>
+      <c r="S149" s="58"/>
+      <c r="T149" s="58"/>
+      <c r="U149" s="58"/>
+      <c r="V149" s="58"/>
+      <c r="W149" s="58"/>
+      <c r="X149" s="58"/>
+      <c r="Y149" s="58"/>
+      <c r="Z149" s="58"/>
+      <c r="AA149" s="58"/>
+      <c r="AB149" s="58"/>
+      <c r="AC149" s="58"/>
+      <c r="AD149" s="58"/>
+      <c r="AE149" s="58"/>
+      <c r="AF149" s="58"/>
+      <c r="AG149" s="58"/>
+      <c r="AH149" s="58"/>
     </row>
     <row r="150" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B150" s="47"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47"/>
-      <c r="I150" s="47"/>
-      <c r="J150" s="47"/>
-      <c r="K150" s="48"/>
-      <c r="L150" s="48"/>
-      <c r="M150" s="48"/>
-      <c r="N150" s="48"/>
-      <c r="O150" s="48"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="48"/>
-      <c r="R150" s="48"/>
-      <c r="S150" s="48"/>
-      <c r="T150" s="48"/>
-      <c r="U150" s="48"/>
-      <c r="V150" s="48"/>
-      <c r="W150" s="48"/>
-      <c r="X150" s="48"/>
-      <c r="Y150" s="48"/>
-      <c r="Z150" s="48"/>
-      <c r="AA150" s="48"/>
-      <c r="AB150" s="48"/>
-      <c r="AC150" s="48"/>
-      <c r="AD150" s="48"/>
-      <c r="AE150" s="48"/>
-      <c r="AF150" s="48"/>
-      <c r="AG150" s="48"/>
-      <c r="AH150" s="48"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="59"/>
+      <c r="J150" s="59"/>
+      <c r="K150" s="60"/>
+      <c r="L150" s="60"/>
+      <c r="M150" s="60"/>
+      <c r="N150" s="60"/>
+      <c r="O150" s="60"/>
+      <c r="P150" s="60"/>
+      <c r="Q150" s="60"/>
+      <c r="R150" s="60"/>
+      <c r="S150" s="60"/>
+      <c r="T150" s="60"/>
+      <c r="U150" s="60"/>
+      <c r="V150" s="60"/>
+      <c r="W150" s="60"/>
+      <c r="X150" s="60"/>
+      <c r="Y150" s="60"/>
+      <c r="Z150" s="60"/>
+      <c r="AA150" s="60"/>
+      <c r="AB150" s="60"/>
+      <c r="AC150" s="60"/>
+      <c r="AD150" s="60"/>
+      <c r="AE150" s="60"/>
+      <c r="AF150" s="60"/>
+      <c r="AG150" s="60"/>
+      <c r="AH150" s="60"/>
     </row>
     <row r="151" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B151" s="47"/>
-      <c r="C151" s="47"/>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
-      <c r="I151" s="47"/>
-      <c r="J151" s="47"/>
-      <c r="K151" s="48"/>
-      <c r="L151" s="48"/>
-      <c r="M151" s="48"/>
-      <c r="N151" s="48"/>
-      <c r="O151" s="48"/>
-      <c r="P151" s="48"/>
-      <c r="Q151" s="48"/>
-      <c r="R151" s="48"/>
-      <c r="S151" s="48"/>
-      <c r="T151" s="48"/>
-      <c r="U151" s="48"/>
-      <c r="V151" s="48"/>
-      <c r="W151" s="48"/>
-      <c r="X151" s="48"/>
-      <c r="Y151" s="48"/>
-      <c r="Z151" s="48"/>
-      <c r="AA151" s="48"/>
-      <c r="AB151" s="48"/>
-      <c r="AC151" s="48"/>
-      <c r="AD151" s="48"/>
-      <c r="AE151" s="48"/>
-      <c r="AF151" s="48"/>
-      <c r="AG151" s="48"/>
-      <c r="AH151" s="48"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="59"/>
+      <c r="K151" s="60"/>
+      <c r="L151" s="60"/>
+      <c r="M151" s="60"/>
+      <c r="N151" s="60"/>
+      <c r="O151" s="60"/>
+      <c r="P151" s="60"/>
+      <c r="Q151" s="60"/>
+      <c r="R151" s="60"/>
+      <c r="S151" s="60"/>
+      <c r="T151" s="60"/>
+      <c r="U151" s="60"/>
+      <c r="V151" s="60"/>
+      <c r="W151" s="60"/>
+      <c r="X151" s="60"/>
+      <c r="Y151" s="60"/>
+      <c r="Z151" s="60"/>
+      <c r="AA151" s="60"/>
+      <c r="AB151" s="60"/>
+      <c r="AC151" s="60"/>
+      <c r="AD151" s="60"/>
+      <c r="AE151" s="60"/>
+      <c r="AF151" s="60"/>
+      <c r="AG151" s="60"/>
+      <c r="AH151" s="60"/>
     </row>
     <row r="152" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B152" s="47"/>
-      <c r="C152" s="47"/>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="48"/>
-      <c r="L152" s="48"/>
-      <c r="M152" s="48"/>
-      <c r="N152" s="48"/>
-      <c r="O152" s="48"/>
-      <c r="P152" s="48"/>
-      <c r="Q152" s="48"/>
-      <c r="R152" s="48"/>
-      <c r="S152" s="48"/>
-      <c r="T152" s="48"/>
-      <c r="U152" s="48"/>
-      <c r="V152" s="48"/>
-      <c r="W152" s="48"/>
-      <c r="X152" s="48"/>
-      <c r="Y152" s="48"/>
-      <c r="Z152" s="48"/>
-      <c r="AA152" s="48"/>
-      <c r="AB152" s="48"/>
-      <c r="AC152" s="48"/>
-      <c r="AD152" s="48"/>
-      <c r="AE152" s="48"/>
-      <c r="AF152" s="48"/>
-      <c r="AG152" s="48"/>
-      <c r="AH152" s="48"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="59"/>
+      <c r="I152" s="59"/>
+      <c r="J152" s="59"/>
+      <c r="K152" s="60"/>
+      <c r="L152" s="60"/>
+      <c r="M152" s="60"/>
+      <c r="N152" s="60"/>
+      <c r="O152" s="60"/>
+      <c r="P152" s="60"/>
+      <c r="Q152" s="60"/>
+      <c r="R152" s="60"/>
+      <c r="S152" s="60"/>
+      <c r="T152" s="60"/>
+      <c r="U152" s="60"/>
+      <c r="V152" s="60"/>
+      <c r="W152" s="60"/>
+      <c r="X152" s="60"/>
+      <c r="Y152" s="60"/>
+      <c r="Z152" s="60"/>
+      <c r="AA152" s="60"/>
+      <c r="AB152" s="60"/>
+      <c r="AC152" s="60"/>
+      <c r="AD152" s="60"/>
+      <c r="AE152" s="60"/>
+      <c r="AF152" s="60"/>
+      <c r="AG152" s="60"/>
+      <c r="AH152" s="60"/>
     </row>
     <row r="153" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B153" s="47"/>
-      <c r="C153" s="47"/>
-      <c r="D153" s="47"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="47"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="48"/>
-      <c r="L153" s="48"/>
-      <c r="M153" s="48"/>
-      <c r="N153" s="48"/>
-      <c r="O153" s="48"/>
-      <c r="P153" s="48"/>
-      <c r="Q153" s="48"/>
-      <c r="R153" s="48"/>
-      <c r="S153" s="48"/>
-      <c r="T153" s="48"/>
-      <c r="U153" s="48"/>
-      <c r="V153" s="48"/>
-      <c r="W153" s="48"/>
-      <c r="X153" s="48"/>
-      <c r="Y153" s="48"/>
-      <c r="Z153" s="48"/>
-      <c r="AA153" s="48"/>
-      <c r="AB153" s="48"/>
-      <c r="AC153" s="48"/>
-      <c r="AD153" s="48"/>
-      <c r="AE153" s="48"/>
-      <c r="AF153" s="48"/>
-      <c r="AG153" s="48"/>
-      <c r="AH153" s="48"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
+      <c r="M153" s="60"/>
+      <c r="N153" s="60"/>
+      <c r="O153" s="60"/>
+      <c r="P153" s="60"/>
+      <c r="Q153" s="60"/>
+      <c r="R153" s="60"/>
+      <c r="S153" s="60"/>
+      <c r="T153" s="60"/>
+      <c r="U153" s="60"/>
+      <c r="V153" s="60"/>
+      <c r="W153" s="60"/>
+      <c r="X153" s="60"/>
+      <c r="Y153" s="60"/>
+      <c r="Z153" s="60"/>
+      <c r="AA153" s="60"/>
+      <c r="AB153" s="60"/>
+      <c r="AC153" s="60"/>
+      <c r="AD153" s="60"/>
+      <c r="AE153" s="60"/>
+      <c r="AF153" s="60"/>
+      <c r="AG153" s="60"/>
+      <c r="AH153" s="60"/>
     </row>
     <row r="154" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B154" s="47"/>
-      <c r="C154" s="47"/>
-      <c r="D154" s="47"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="47"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
-      <c r="I154" s="47"/>
-      <c r="J154" s="47"/>
-      <c r="K154" s="48"/>
-      <c r="L154" s="48"/>
-      <c r="M154" s="48"/>
-      <c r="N154" s="48"/>
-      <c r="O154" s="48"/>
-      <c r="P154" s="48"/>
-      <c r="Q154" s="48"/>
-      <c r="R154" s="48"/>
-      <c r="S154" s="48"/>
-      <c r="T154" s="48"/>
-      <c r="U154" s="48"/>
-      <c r="V154" s="48"/>
-      <c r="W154" s="48"/>
-      <c r="X154" s="48"/>
-      <c r="Y154" s="48"/>
-      <c r="Z154" s="48"/>
-      <c r="AA154" s="48"/>
-      <c r="AB154" s="48"/>
-      <c r="AC154" s="48"/>
-      <c r="AD154" s="48"/>
-      <c r="AE154" s="48"/>
-      <c r="AF154" s="48"/>
-      <c r="AG154" s="48"/>
-      <c r="AH154" s="48"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="59"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="60"/>
+      <c r="M154" s="60"/>
+      <c r="N154" s="60"/>
+      <c r="O154" s="60"/>
+      <c r="P154" s="60"/>
+      <c r="Q154" s="60"/>
+      <c r="R154" s="60"/>
+      <c r="S154" s="60"/>
+      <c r="T154" s="60"/>
+      <c r="U154" s="60"/>
+      <c r="V154" s="60"/>
+      <c r="W154" s="60"/>
+      <c r="X154" s="60"/>
+      <c r="Y154" s="60"/>
+      <c r="Z154" s="60"/>
+      <c r="AA154" s="60"/>
+      <c r="AB154" s="60"/>
+      <c r="AC154" s="60"/>
+      <c r="AD154" s="60"/>
+      <c r="AE154" s="60"/>
+      <c r="AF154" s="60"/>
+      <c r="AG154" s="60"/>
+      <c r="AH154" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:P153"/>
+    <mergeCell ref="Q153:Y153"/>
+    <mergeCell ref="Z153:AH153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:P154"/>
+    <mergeCell ref="Q154:Y154"/>
+    <mergeCell ref="Z154:AH154"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:P151"/>
+    <mergeCell ref="Q151:Y151"/>
+    <mergeCell ref="Z151:AH151"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:P152"/>
+    <mergeCell ref="Q152:Y152"/>
+    <mergeCell ref="Z152:AH152"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:P149"/>
+    <mergeCell ref="Q149:Y149"/>
+    <mergeCell ref="Z149:AH149"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:P150"/>
+    <mergeCell ref="Q150:Y150"/>
+    <mergeCell ref="Z150:AH150"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="K147:P147"/>
+    <mergeCell ref="Q147:Y147"/>
+    <mergeCell ref="Z147:AH147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="K148:P148"/>
+    <mergeCell ref="Q148:Y148"/>
+    <mergeCell ref="Z148:AH148"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:P145"/>
+    <mergeCell ref="Q145:Y145"/>
+    <mergeCell ref="Z145:AH145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:P146"/>
+    <mergeCell ref="Q146:Y146"/>
+    <mergeCell ref="Z146:AH146"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:P143"/>
+    <mergeCell ref="Q143:Y143"/>
+    <mergeCell ref="Z143:AH143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:P144"/>
+    <mergeCell ref="Q144:Y144"/>
+    <mergeCell ref="Z144:AH144"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="K141:P141"/>
+    <mergeCell ref="Q141:Y141"/>
+    <mergeCell ref="Z141:AH141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="K142:P142"/>
+    <mergeCell ref="Q142:Y142"/>
+    <mergeCell ref="Z142:AH142"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="K139:P139"/>
+    <mergeCell ref="Q139:Y139"/>
+    <mergeCell ref="Z139:AH139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="K140:P140"/>
+    <mergeCell ref="Q140:Y140"/>
+    <mergeCell ref="Z140:AH140"/>
     <mergeCell ref="Z136:AH136"/>
     <mergeCell ref="B137:E137"/>
     <mergeCell ref="F137:G137"/>
@@ -21334,102 +21431,6 @@
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="K136:P136"/>
     <mergeCell ref="Q136:Y136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="K139:P139"/>
-    <mergeCell ref="Q139:Y139"/>
-    <mergeCell ref="Z139:AH139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="K140:P140"/>
-    <mergeCell ref="Q140:Y140"/>
-    <mergeCell ref="Z140:AH140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:P141"/>
-    <mergeCell ref="Q141:Y141"/>
-    <mergeCell ref="Z141:AH141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:P142"/>
-    <mergeCell ref="Q142:Y142"/>
-    <mergeCell ref="Z142:AH142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:P143"/>
-    <mergeCell ref="Q143:Y143"/>
-    <mergeCell ref="Z143:AH143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:P144"/>
-    <mergeCell ref="Q144:Y144"/>
-    <mergeCell ref="Z144:AH144"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:P145"/>
-    <mergeCell ref="Q145:Y145"/>
-    <mergeCell ref="Z145:AH145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:P146"/>
-    <mergeCell ref="Q146:Y146"/>
-    <mergeCell ref="Z146:AH146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:P147"/>
-    <mergeCell ref="Q147:Y147"/>
-    <mergeCell ref="Z147:AH147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:P148"/>
-    <mergeCell ref="Q148:Y148"/>
-    <mergeCell ref="Z148:AH148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:P149"/>
-    <mergeCell ref="Q149:Y149"/>
-    <mergeCell ref="Z149:AH149"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:P150"/>
-    <mergeCell ref="Q150:Y150"/>
-    <mergeCell ref="Z150:AH150"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:P151"/>
-    <mergeCell ref="Q151:Y151"/>
-    <mergeCell ref="Z151:AH151"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:P152"/>
-    <mergeCell ref="Q152:Y152"/>
-    <mergeCell ref="Z152:AH152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="K153:P153"/>
-    <mergeCell ref="Q153:Y153"/>
-    <mergeCell ref="Z153:AH153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="K154:P154"/>
-    <mergeCell ref="Q154:Y154"/>
-    <mergeCell ref="Z154:AH154"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/成果物サンプル＆ガイド/DC-201_ステークホルダー定義(サンプル＆ガイド).xlsx
+++ b/docs/3-4_要件定義計画/4_要件定義計画成果物サンプル＆ガイド/成果物サンプル＆ガイド/DC-201_ステークホルダー定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43429C56-7F02-4EEB-ADCA-4BA13232C013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6375" windowWidth="28830" windowHeight="6390"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="20760" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1180,17 +1181,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <r>
       <t>要求の抽出・分析・</t>
     </r>
@@ -1289,18 +1279,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1796,6 +1779,9 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,22 +1791,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,23 +1818,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1941,6 +1924,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1962,7 +1948,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2069,52 +2061,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122712</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6819900"/>
-          <a:ext cx="838200" cy="294162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2135,7 +2081,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -2185,7 +2137,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2248,7 +2206,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2311,7 +2275,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2375,7 +2345,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2434,7 +2410,13 @@
     <xdr:ext cx="1518364" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2504,7 +2486,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2567,7 +2555,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2630,7 +2624,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -2680,7 +2680,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
+        <xdr:cNvPr id="22" name="カギ線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -2730,7 +2736,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="カギ線コネクタ 22"/>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -2775,7 +2787,13 @@
     <xdr:ext cx="595035" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2834,7 +2852,13 @@
     <xdr:ext cx="1415772" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2930,7 +2954,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="右矢印 86"/>
+        <xdr:cNvPr id="87" name="右矢印 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2988,7 +3018,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="上矢印 87"/>
+        <xdr:cNvPr id="88" name="上矢印 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3046,7 +3082,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="283" idx="2"/>
           <a:endCxn id="268" idx="0"/>
@@ -3092,7 +3134,13 @@
     <xdr:ext cx="415498" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3147,7 +3195,13 @@
     <xdr:ext cx="415498" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="テキスト ボックス 144"/>
+        <xdr:cNvPr id="145" name="テキスト ボックス 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3207,7 +3261,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線矢印コネクタ 145"/>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="271" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -3252,7 +3312,13 @@
     <xdr:ext cx="415498" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="テキスト ボックス 146"/>
+        <xdr:cNvPr id="147" name="テキスト ボックス 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3312,7 +3378,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="298" idx="2"/>
           <a:endCxn id="293" idx="0"/>
@@ -3358,7 +3430,13 @@
     <xdr:ext cx="415498" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="テキスト ボックス 148"/>
+        <xdr:cNvPr id="149" name="テキスト ボックス 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3413,7 +3491,13 @@
     <xdr:ext cx="530915" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3473,7 +3557,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="曲線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="曲線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="262" idx="2"/>
           <a:endCxn id="272" idx="0"/>
@@ -3524,7 +3614,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="152" name="曲線コネクタ 151"/>
+        <xdr:cNvPr id="152" name="曲線コネクタ 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="263" idx="0"/>
           <a:endCxn id="287" idx="0"/>
@@ -3574,7 +3670,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="曲線コネクタ 152"/>
+        <xdr:cNvPr id="153" name="曲線コネクタ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="262" idx="6"/>
           <a:endCxn id="267" idx="0"/>
@@ -3624,7 +3726,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="154" name="直線矢印コネクタ 153"/>
+        <xdr:cNvPr id="154" name="直線矢印コネクタ 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="273" idx="2"/>
           <a:endCxn id="288" idx="0"/>
@@ -3670,7 +3778,13 @@
     <xdr:ext cx="761747" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="テキスト ボックス 154"/>
+        <xdr:cNvPr id="155" name="テキスト ボックス 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3725,7 +3839,13 @@
     <xdr:ext cx="415498" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="テキスト ボックス 155"/>
+        <xdr:cNvPr id="156" name="テキスト ボックス 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3780,7 +3900,13 @@
     <xdr:ext cx="1107996" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="テキスト ボックス 156"/>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3848,7 +3974,13 @@
     <xdr:ext cx="1107996" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="テキスト ボックス 157"/>
+        <xdr:cNvPr id="158" name="テキスト ボックス 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3925,7 +4057,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直線矢印コネクタ 158"/>
+        <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="261" idx="2"/>
           <a:endCxn id="277" idx="0"/>
@@ -3976,7 +4114,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="177" name="曲線コネクタ 176"/>
+        <xdr:cNvPr id="177" name="曲線コネクタ 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="286" idx="2"/>
           <a:endCxn id="266" idx="2"/>
@@ -4028,7 +4172,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="193" name="曲線コネクタ 192"/>
+        <xdr:cNvPr id="193" name="曲線コネクタ 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="277" idx="7"/>
           <a:endCxn id="267" idx="1"/>
@@ -4075,7 +4225,13 @@
     <xdr:ext cx="1338828" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="テキスト ボックス 202"/>
+        <xdr:cNvPr id="203" name="テキスト ボックス 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4139,20 +4295,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="942974" y="638174"/>
-          <a:ext cx="5667376" cy="5667376"/>
+          <a:off x="955547" y="574547"/>
+          <a:ext cx="5742433" cy="5100829"/>
           <a:chOff x="942974" y="1247774"/>
           <a:chExt cx="5667376" cy="5667376"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="円/楕円 161"/>
+          <xdr:cNvPr id="162" name="円/楕円 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4193,7 +4361,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="円/楕円 162"/>
+          <xdr:cNvPr id="163" name="円/楕円 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4234,7 +4408,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="164" name="円/楕円 163"/>
+          <xdr:cNvPr id="164" name="円/楕円 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4275,7 +4455,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="178" name="円/楕円 177"/>
+          <xdr:cNvPr id="178" name="円/楕円 177">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4316,7 +4502,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="Rectangle 10"/>
+          <xdr:cNvPr id="160" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4516,7 +4708,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="Rectangle 11"/>
+          <xdr:cNvPr id="161" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4716,7 +4914,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="134" name="Rectangle 8"/>
+          <xdr:cNvPr id="134" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4916,7 +5120,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="150" name="Rectangle 9"/>
+          <xdr:cNvPr id="150" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5122,20 +5332,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2847976" y="3181351"/>
-          <a:ext cx="923924" cy="809624"/>
+          <a:off x="2886457" y="2863597"/>
+          <a:ext cx="935735" cy="728471"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="809624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="182" name="グループ化 181"/>
+          <xdr:cNvPr id="182" name="グループ化 181">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5151,7 +5373,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="184" name="円/楕円 183"/>
+            <xdr:cNvPr id="184" name="円/楕円 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -5167,7 +5395,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -5347,7 +5574,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="フローチャート : 論理積ゲート 184"/>
+            <xdr:cNvPr id="185" name="フローチャート : 論理積ゲート 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -5363,7 +5596,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -5544,7 +5776,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="183" name="テキスト ボックス 182"/>
+          <xdr:cNvPr id="183" name="テキスト ボックス 182">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5624,20 +5862,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="186" name="グループ化 185"/>
+        <xdr:cNvPr id="186" name="グループ化 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810001" y="3181351"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="3860293" y="2863597"/>
+          <a:ext cx="937259" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="187" name="グループ化 186"/>
+          <xdr:cNvPr id="187" name="グループ化 186">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5653,7 +5903,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="189" name="円/楕円 188"/>
+            <xdr:cNvPr id="189" name="円/楕円 188">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -5669,7 +5925,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -5849,7 +6104,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="190" name="フローチャート : 論理積ゲート 189"/>
+            <xdr:cNvPr id="190" name="フローチャート : 論理積ゲート 189">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -5865,7 +6126,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -6046,7 +6306,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="188" name="テキスト ボックス 187"/>
+          <xdr:cNvPr id="188" name="テキスト ボックス 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6126,20 +6392,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="218" name="グループ化 217"/>
+        <xdr:cNvPr id="218" name="グループ化 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1495426" y="4933951"/>
-          <a:ext cx="923924" cy="657224"/>
+          <a:off x="1514857" y="4440937"/>
+          <a:ext cx="937259" cy="591311"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="657224"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="219" name="グループ化 218"/>
+          <xdr:cNvPr id="219" name="グループ化 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6155,7 +6433,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="221" name="円/楕円 220"/>
+            <xdr:cNvPr id="221" name="円/楕円 220">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -6171,7 +6455,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -6351,7 +6634,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="222" name="フローチャート : 論理積ゲート 221"/>
+            <xdr:cNvPr id="222" name="フローチャート : 論理積ゲート 221">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -6367,7 +6656,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -6548,7 +6836,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="テキスト ボックス 219"/>
+          <xdr:cNvPr id="220" name="テキスト ボックス 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6614,20 +6908,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="223" name="グループ化 222"/>
+        <xdr:cNvPr id="223" name="グループ化 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5191126" y="4895851"/>
-          <a:ext cx="923924" cy="657224"/>
+          <a:off x="5260849" y="4405885"/>
+          <a:ext cx="935735" cy="592835"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="657224"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="224" name="グループ化 223"/>
+          <xdr:cNvPr id="224" name="グループ化 223">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6643,7 +6949,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="226" name="円/楕円 225"/>
+            <xdr:cNvPr id="226" name="円/楕円 225">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -6659,7 +6971,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -6839,7 +7150,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="227" name="フローチャート : 論理積ゲート 226"/>
+            <xdr:cNvPr id="227" name="フローチャート : 論理積ゲート 226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -6855,7 +7172,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -7036,7 +7352,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="225" name="テキスト ボックス 224"/>
+          <xdr:cNvPr id="225" name="テキスト ボックス 224">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7102,20 +7424,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="228" name="グループ化 227"/>
+        <xdr:cNvPr id="228" name="グループ化 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3371851" y="5686426"/>
-          <a:ext cx="923924" cy="657224"/>
+          <a:off x="3416809" y="5117593"/>
+          <a:ext cx="935735" cy="592835"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="657224"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="229" name="グループ化 228"/>
+          <xdr:cNvPr id="229" name="グループ化 228">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7131,7 +7465,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="231" name="円/楕円 230"/>
+            <xdr:cNvPr id="231" name="円/楕円 230">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -7147,7 +7487,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -7327,7 +7666,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="232" name="フローチャート : 論理積ゲート 231"/>
+            <xdr:cNvPr id="232" name="フローチャート : 論理積ゲート 231">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -7343,7 +7688,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -7524,7 +7868,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="230" name="テキスト ボックス 229"/>
+          <xdr:cNvPr id="230" name="テキスト ボックス 229">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7590,20 +7940,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="234" name="グループ化 233"/>
+        <xdr:cNvPr id="234" name="グループ化 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2486026" y="3924301"/>
-          <a:ext cx="923924" cy="809624"/>
+          <a:off x="2519173" y="3532633"/>
+          <a:ext cx="935735" cy="728471"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="809624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="235" name="グループ化 234"/>
+          <xdr:cNvPr id="235" name="グループ化 234">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -7619,7 +7981,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="237" name="円/楕円 236"/>
+            <xdr:cNvPr id="237" name="円/楕円 236">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000ED000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -7635,7 +8003,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -7815,7 +8182,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="238" name="フローチャート : 論理積ゲート 237"/>
+            <xdr:cNvPr id="238" name="フローチャート : 論理積ゲート 237">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -7831,7 +8204,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -8012,7 +8384,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="236" name="テキスト ボックス 235"/>
+          <xdr:cNvPr id="236" name="テキスト ボックス 235">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8092,20 +8470,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="239" name="グループ化 238"/>
+        <xdr:cNvPr id="239" name="グループ化 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4143376" y="3914776"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="4198621" y="3523489"/>
+          <a:ext cx="935735" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="240" name="グループ化 239"/>
+          <xdr:cNvPr id="240" name="グループ化 239">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8121,7 +8511,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="242" name="円/楕円 241"/>
+            <xdr:cNvPr id="242" name="円/楕円 241">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -8137,7 +8533,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -8317,7 +8712,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="243" name="フローチャート : 論理積ゲート 242"/>
+            <xdr:cNvPr id="243" name="フローチャート : 論理積ゲート 242">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -8333,7 +8734,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -8514,7 +8914,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="241" name="テキスト ボックス 240"/>
+          <xdr:cNvPr id="241" name="テキスト ボックス 240">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8594,20 +9000,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="244" name="グループ化 243"/>
+        <xdr:cNvPr id="244" name="グループ化 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3352801" y="4314826"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="3396997" y="3883153"/>
+          <a:ext cx="937259" cy="755903"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="245" name="グループ化 244"/>
+          <xdr:cNvPr id="245" name="グループ化 244">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8623,7 +9041,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="247" name="円/楕円 246"/>
+            <xdr:cNvPr id="247" name="円/楕円 246">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -8639,7 +9063,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -8819,7 +9242,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="248" name="フローチャート : 論理積ゲート 247"/>
+            <xdr:cNvPr id="248" name="フローチャート : 論理積ゲート 247">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -8835,7 +9264,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -9016,7 +9444,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="246" name="テキスト ボックス 245"/>
+          <xdr:cNvPr id="246" name="テキスト ボックス 245">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9096,20 +9530,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="249" name="グループ化 248"/>
+        <xdr:cNvPr id="249" name="グループ化 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1581151" y="3190876"/>
-          <a:ext cx="923924" cy="809624"/>
+          <a:off x="1601725" y="2872741"/>
+          <a:ext cx="937259" cy="728471"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="809624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="250" name="グループ化 249"/>
+          <xdr:cNvPr id="250" name="グループ化 249">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -9125,7 +9571,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="252" name="円/楕円 251"/>
+            <xdr:cNvPr id="252" name="円/楕円 251">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FC000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -9141,7 +9593,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -9321,7 +9772,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="253" name="フローチャート : 論理積ゲート 252"/>
+            <xdr:cNvPr id="253" name="フローチャート : 論理積ゲート 252">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -9337,7 +9794,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -9518,7 +9974,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="251" name="テキスト ボックス 250"/>
+          <xdr:cNvPr id="251" name="テキスト ボックス 250">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9598,20 +10060,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="254" name="グループ化 253"/>
+        <xdr:cNvPr id="254" name="グループ化 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5076826" y="3209926"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="5145025" y="2889505"/>
+          <a:ext cx="935735" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="255" name="グループ化 254"/>
+          <xdr:cNvPr id="255" name="グループ化 254">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -9627,7 +10101,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="257" name="円/楕円 256"/>
+            <xdr:cNvPr id="257" name="円/楕円 256">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -9643,7 +10123,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -9823,7 +10302,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="258" name="フローチャート : 論理積ゲート 257"/>
+            <xdr:cNvPr id="258" name="フローチャート : 論理積ゲート 257">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -9839,7 +10324,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -10020,7 +10504,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="256" name="テキスト ボックス 255"/>
+          <xdr:cNvPr id="256" name="テキスト ボックス 255">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000000010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10086,20 +10576,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="259" name="グループ化 258"/>
+        <xdr:cNvPr id="259" name="グループ化 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4048126" y="7343776"/>
-          <a:ext cx="923924" cy="809624"/>
+          <a:off x="4102609" y="6609589"/>
+          <a:ext cx="935735" cy="728471"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="809624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="260" name="グループ化 259"/>
+          <xdr:cNvPr id="260" name="グループ化 259">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -10115,7 +10617,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="262" name="円/楕円 261"/>
+            <xdr:cNvPr id="262" name="円/楕円 261">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -10138,7 +10646,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -10318,7 +10825,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="263" name="フローチャート : 論理積ゲート 262"/>
+            <xdr:cNvPr id="263" name="フローチャート : 論理積ゲート 262">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -10341,7 +10854,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -10522,7 +11034,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="261" name="テキスト ボックス 260"/>
+          <xdr:cNvPr id="261" name="テキスト ボックス 260">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10602,20 +11120,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="264" name="グループ化 263"/>
+        <xdr:cNvPr id="264" name="グループ化 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7448551" y="9172576"/>
-          <a:ext cx="923924" cy="809624"/>
+          <a:off x="7548373" y="8255509"/>
+          <a:ext cx="935735" cy="728471"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="809624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="265" name="グループ化 264"/>
+          <xdr:cNvPr id="265" name="グループ化 264">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -10631,7 +11161,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="267" name="円/楕円 266"/>
+            <xdr:cNvPr id="267" name="円/楕円 266">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -10654,7 +11190,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -10834,7 +11369,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="268" name="フローチャート : 論理積ゲート 267"/>
+            <xdr:cNvPr id="268" name="フローチャート : 論理積ゲート 267">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -10857,7 +11398,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -11038,7 +11578,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="266" name="テキスト ボックス 265"/>
+          <xdr:cNvPr id="266" name="テキスト ボックス 265">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11118,20 +11664,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="269" name="グループ化 268"/>
+        <xdr:cNvPr id="269" name="グループ化 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="581026" y="9172576"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="588265" y="8255509"/>
+          <a:ext cx="937259" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="270" name="グループ化 269"/>
+          <xdr:cNvPr id="270" name="グループ化 269">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11147,7 +11705,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="272" name="円/楕円 271"/>
+            <xdr:cNvPr id="272" name="円/楕円 271">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -11170,7 +11734,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -11350,7 +11913,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="273" name="フローチャート : 論理積ゲート 272"/>
+            <xdr:cNvPr id="273" name="フローチャート : 論理積ゲート 272">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -11373,7 +11942,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -11554,7 +12122,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="271" name="テキスト ボックス 270"/>
+          <xdr:cNvPr id="271" name="テキスト ボックス 270">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11634,20 +12208,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="274" name="グループ化 273"/>
+        <xdr:cNvPr id="274" name="グループ化 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4067176" y="9172576"/>
-          <a:ext cx="923924" cy="809624"/>
+          <a:off x="4120897" y="8255509"/>
+          <a:ext cx="937259" cy="728471"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="809624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="275" name="グループ化 274"/>
+          <xdr:cNvPr id="275" name="グループ化 274">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11663,7 +12249,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="277" name="円/楕円 276"/>
+            <xdr:cNvPr id="277" name="円/楕円 276">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -11686,7 +12278,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -11866,7 +12457,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="278" name="フローチャート : 論理積ゲート 277"/>
+            <xdr:cNvPr id="278" name="フローチャート : 論理積ゲート 277">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -11889,7 +12486,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -12070,7 +12666,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="276" name="テキスト ボックス 275"/>
+          <xdr:cNvPr id="276" name="テキスト ボックス 275">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12150,20 +12752,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="279" name="グループ化 278"/>
+        <xdr:cNvPr id="279" name="グループ化 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5743576" y="9172576"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="5820157" y="8255509"/>
+          <a:ext cx="935735" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="280" name="グループ化 279"/>
+          <xdr:cNvPr id="280" name="グループ化 279">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -12179,7 +12793,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="282" name="円/楕円 281"/>
+            <xdr:cNvPr id="282" name="円/楕円 281">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -12202,7 +12822,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -12382,7 +13001,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="283" name="フローチャート : 論理積ゲート 282"/>
+            <xdr:cNvPr id="283" name="フローチャート : 論理積ゲート 282">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -12405,7 +13030,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -12586,7 +13210,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="281" name="テキスト ボックス 280"/>
+          <xdr:cNvPr id="281" name="テキスト ボックス 280">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12666,20 +13296,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="284" name="グループ化 283"/>
+        <xdr:cNvPr id="284" name="グループ化 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2390776" y="9172576"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="2423161" y="8255509"/>
+          <a:ext cx="935735" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="285" name="グループ化 284"/>
+          <xdr:cNvPr id="285" name="グループ化 284">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -12695,7 +13337,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="287" name="円/楕円 286"/>
+            <xdr:cNvPr id="287" name="円/楕円 286">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -12718,7 +13366,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -12898,7 +13545,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="288" name="フローチャート : 論理積ゲート 287"/>
+            <xdr:cNvPr id="288" name="フローチャート : 論理積ゲート 287">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -12921,7 +13574,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -13102,7 +13754,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="286" name="テキスト ボックス 285"/>
+          <xdr:cNvPr id="286" name="テキスト ボックス 285">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13182,20 +13840,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="289" name="グループ化 288"/>
+        <xdr:cNvPr id="289" name="グループ化 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2362201" y="11087101"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="2394205" y="9979153"/>
+          <a:ext cx="935735" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="290" name="グループ化 289"/>
+          <xdr:cNvPr id="290" name="グループ化 289">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -13211,7 +13881,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="292" name="円/楕円 291"/>
+            <xdr:cNvPr id="292" name="円/楕円 291">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -13234,7 +13910,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -13414,7 +14089,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="293" name="フローチャート : 論理積ゲート 292"/>
+            <xdr:cNvPr id="293" name="フローチャート : 論理積ゲート 292">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -13437,7 +14118,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -13618,7 +14298,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="291" name="テキスト ボックス 290"/>
+          <xdr:cNvPr id="291" name="テキスト ボックス 290">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13698,20 +14384,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="294" name="グループ化 293"/>
+        <xdr:cNvPr id="294" name="グループ化 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="581026" y="11087101"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="588265" y="9979153"/>
+          <a:ext cx="937259" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="295" name="グループ化 294"/>
+          <xdr:cNvPr id="295" name="グループ化 294">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -13727,7 +14425,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="297" name="円/楕円 296"/>
+            <xdr:cNvPr id="297" name="円/楕円 296">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -13750,7 +14454,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -13930,7 +14633,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="298" name="フローチャート : 論理積ゲート 297"/>
+            <xdr:cNvPr id="298" name="フローチャート : 論理積ゲート 297">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -13953,7 +14662,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -14134,7 +14842,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="296" name="テキスト ボックス 295"/>
+          <xdr:cNvPr id="296" name="テキスト ボックス 295">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14214,20 +14928,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7077075" y="11982450"/>
-          <a:ext cx="2257424" cy="1104900"/>
+          <a:off x="7171944" y="10785348"/>
+          <a:ext cx="2287523" cy="993648"/>
           <a:chOff x="7267575" y="12325350"/>
           <a:chExt cx="2257424" cy="1104900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="メモ 30"/>
+          <xdr:cNvPr id="31" name="メモ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -14290,7 +15016,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="166" name="グループ化 165"/>
+          <xdr:cNvPr id="166" name="グループ化 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -14303,7 +15035,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="167" name="グループ化 166"/>
+            <xdr:cNvPr id="167" name="グループ化 166">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -14319,7 +15057,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="169" name="円/楕円 168"/>
+              <xdr:cNvPr id="169" name="円/楕円 168">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
@@ -14342,7 +15086,6 @@
                 <a:headEnd type="none" w="med" len="med"/>
                 <a:tailEnd type="none" w="med" len="med"/>
               </a:ln>
-              <a:extLst/>
             </xdr:spPr>
             <xdr:style>
               <a:lnRef idx="1">
@@ -14522,7 +15265,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="170" name="フローチャート : 論理積ゲート 169"/>
+              <xdr:cNvPr id="170" name="フローチャート : 論理積ゲート 169">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
@@ -14545,7 +15294,6 @@
                 <a:headEnd type="none" w="med" len="med"/>
                 <a:tailEnd type="none" w="med" len="med"/>
               </a:ln>
-              <a:extLst/>
             </xdr:spPr>
             <xdr:style>
               <a:lnRef idx="1">
@@ -14726,7 +15474,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="168" name="テキスト ボックス 167"/>
+            <xdr:cNvPr id="168" name="テキスト ボックス 167">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14777,7 +15531,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="171" name="グループ化 170"/>
+          <xdr:cNvPr id="171" name="グループ化 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -14790,7 +15550,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="172" name="グループ化 171"/>
+            <xdr:cNvPr id="172" name="グループ化 171">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -14806,7 +15572,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="174" name="円/楕円 173"/>
+              <xdr:cNvPr id="174" name="円/楕円 173">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
@@ -14829,7 +15601,6 @@
                 <a:headEnd type="none" w="med" len="med"/>
                 <a:tailEnd type="none" w="med" len="med"/>
               </a:ln>
-              <a:extLst/>
             </xdr:spPr>
             <xdr:style>
               <a:lnRef idx="1">
@@ -15009,7 +15780,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="175" name="フローチャート : 論理積ゲート 174"/>
+              <xdr:cNvPr id="175" name="フローチャート : 論理積ゲート 174">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
@@ -15032,7 +15809,6 @@
                 <a:headEnd type="none" w="med" len="med"/>
                 <a:tailEnd type="none" w="med" len="med"/>
               </a:ln>
-              <a:extLst/>
             </xdr:spPr>
             <xdr:style>
               <a:lnRef idx="1">
@@ -15213,7 +15989,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="173" name="テキスト ボックス 172"/>
+            <xdr:cNvPr id="173" name="テキスト ボックス 172">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15264,7 +16046,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="176" name="グループ化 175"/>
+          <xdr:cNvPr id="176" name="グループ化 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -15277,7 +16065,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="179" name="グループ化 178"/>
+            <xdr:cNvPr id="179" name="グループ化 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -15293,7 +16087,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="181" name="円/楕円 180"/>
+              <xdr:cNvPr id="181" name="円/楕円 180">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
@@ -15316,7 +16116,6 @@
                 <a:headEnd type="none" w="med" len="med"/>
                 <a:tailEnd type="none" w="med" len="med"/>
               </a:ln>
-              <a:extLst/>
             </xdr:spPr>
             <xdr:style>
               <a:lnRef idx="1">
@@ -15496,7 +16295,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="191" name="フローチャート : 論理積ゲート 190"/>
+              <xdr:cNvPr id="191" name="フローチャート : 論理積ゲート 190">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
@@ -15519,7 +16324,6 @@
                 <a:headEnd type="none" w="med" len="med"/>
                 <a:tailEnd type="none" w="med" len="med"/>
               </a:ln>
-              <a:extLst/>
             </xdr:spPr>
             <xdr:style>
               <a:lnRef idx="1">
@@ -15700,7 +16504,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="180" name="テキスト ボックス 179"/>
+            <xdr:cNvPr id="180" name="テキスト ボックス 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15762,7 +16572,13 @@
     <xdr:ext cx="325730" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15817,7 +16633,13 @@
     <xdr:ext cx="325730" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="307" name="テキスト ボックス 306"/>
+        <xdr:cNvPr id="307" name="テキスト ボックス 306">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15872,7 +16694,13 @@
     <xdr:ext cx="325730" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="308" name="テキスト ボックス 307"/>
+        <xdr:cNvPr id="308" name="テキスト ボックス 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15927,7 +16755,13 @@
     <xdr:ext cx="244154" cy="374461"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="テキスト ボックス 308"/>
+        <xdr:cNvPr id="309" name="テキスト ボックス 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15983,7 +16817,13 @@
     <xdr:ext cx="244154" cy="374461"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="テキスト ボックス 309"/>
+        <xdr:cNvPr id="310" name="テキスト ボックス 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16039,7 +16879,13 @@
     <xdr:ext cx="244154" cy="374461"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="テキスト ボックス 310"/>
+        <xdr:cNvPr id="311" name="テキスト ボックス 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16100,7 +16946,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16173,7 +17025,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="正方形/長方形 311"/>
+        <xdr:cNvPr id="312" name="正方形/長方形 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16246,7 +17104,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="313" name="正方形/長方形 312"/>
+        <xdr:cNvPr id="313" name="正方形/長方形 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16319,7 +17183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="314" name="正方形/長方形 313"/>
+        <xdr:cNvPr id="314" name="正方形/長方形 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16392,7 +17262,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="正方形/長方形 315"/>
+        <xdr:cNvPr id="316" name="正方形/長方形 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16451,7 +17327,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="315" name="正方形/長方形 314"/>
+        <xdr:cNvPr id="315" name="正方形/長方形 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16524,7 +17406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="正方形/長方形 316"/>
+        <xdr:cNvPr id="317" name="正方形/長方形 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16583,7 +17471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="正方形/長方形 317"/>
+        <xdr:cNvPr id="318" name="正方形/長方形 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16642,7 +17536,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="正方形/長方形 318"/>
+        <xdr:cNvPr id="319" name="正方形/長方形 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16701,7 +17601,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="正方形/長方形 319"/>
+        <xdr:cNvPr id="320" name="正方形/長方形 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16774,7 +17680,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="正方形/長方形 320"/>
+        <xdr:cNvPr id="321" name="正方形/長方形 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16847,7 +17759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="正方形/長方形 321"/>
+        <xdr:cNvPr id="322" name="正方形/長方形 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16920,20 +17838,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="323" name="グループ化 322"/>
+        <xdr:cNvPr id="323" name="グループ化 322">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2343151" y="2533651"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="2374393" y="2281429"/>
+          <a:ext cx="935735" cy="752855"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="324" name="グループ化 323"/>
+          <xdr:cNvPr id="324" name="グループ化 323">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -16949,7 +17879,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="326" name="円/楕円 325"/>
+            <xdr:cNvPr id="326" name="円/楕円 325">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -16965,7 +17901,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -17145,7 +18080,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="327" name="フローチャート : 論理積ゲート 326"/>
+            <xdr:cNvPr id="327" name="フローチャート : 論理積ゲート 326">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -17161,7 +18102,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -17342,7 +18282,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="325" name="テキスト ボックス 324"/>
+          <xdr:cNvPr id="325" name="テキスト ボックス 324">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -17422,20 +18368,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="328" name="グループ化 327"/>
+        <xdr:cNvPr id="328" name="グループ化 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4238626" y="2543176"/>
-          <a:ext cx="923924" cy="838199"/>
+          <a:off x="4294633" y="2289049"/>
+          <a:ext cx="937259" cy="754379"/>
           <a:chOff x="14773276" y="7858126"/>
           <a:chExt cx="923924" cy="838199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="329" name="グループ化 328"/>
+          <xdr:cNvPr id="329" name="グループ化 328">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -17451,7 +18409,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="331" name="円/楕円 330"/>
+            <xdr:cNvPr id="331" name="円/楕円 330">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -17467,7 +18431,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -17647,7 +18610,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="332" name="フローチャート : 論理積ゲート 331"/>
+            <xdr:cNvPr id="332" name="フローチャート : 論理積ゲート 331">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C010000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
@@ -17663,7 +18632,6 @@
               <a:headEnd type="none" w="med" len="med"/>
               <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
-            <a:extLst/>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="1">
@@ -17844,7 +18812,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="330" name="テキスト ボックス 329"/>
+          <xdr:cNvPr id="330" name="テキスト ボックス 329">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -18226,7 +19200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18334,7 +19308,7 @@
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
     </row>
-    <row r="33" spans="2:19" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F33" s="27"/>
       <c r="H33" s="27"/>
       <c r="L33" s="34"/>
@@ -18346,7 +19320,7 @@
       <c r="R33" s="37"/>
       <c r="S33" s="38"/>
     </row>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="27"/>
       <c r="H34" s="27"/>
       <c r="L34" s="34"/>
@@ -18358,56 +19332,45 @@
       <c r="R34" s="37"/>
       <c r="S34" s="38"/>
     </row>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
     </row>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="39"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="38"/>
       <c r="S36" s="40"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="39"/>
       <c r="P37" s="38"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="38"/>
       <c r="S37" s="39"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>78</v>
-      </c>
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="41"/>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
       <c r="Q38" s="39"/>
-      <c r="R38" s="39" t="s">
-        <v>79</v>
-      </c>
+      <c r="R38" s="39"/>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18873,17 +19836,14 @@
     <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -18903,7 +19863,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -18987,44 +19947,44 @@
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="42" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="42" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="45"/>
     </row>
     <row r="24" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6">
@@ -19071,42 +20031,42 @@
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
     </row>
     <row r="26" spans="2:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
@@ -19164,126 +20124,126 @@
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="42" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="42" t="s">
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="43"/>
-      <c r="AH32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="45"/>
     </row>
     <row r="33" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
     </row>
     <row r="34" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
     </row>
     <row r="35" spans="1:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
@@ -19328,7 +20288,7 @@
     <row r="37" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -19341,44 +20301,44 @@
       <c r="B41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="42" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="42" t="s">
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="45"/>
     </row>
     <row r="42" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
@@ -19387,85 +20347,85 @@
       <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45" t="s">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45" t="s">
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="45"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
     </row>
     <row r="43" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42"/>
     </row>
     <row r="44" spans="1:34" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
@@ -19519,44 +20479,44 @@
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="42" t="s">
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="42" t="s">
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="45"/>
+      <c r="Z50" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="43"/>
-      <c r="AC50" s="43"/>
-      <c r="AD50" s="43"/>
-      <c r="AE50" s="43"/>
-      <c r="AF50" s="43"/>
-      <c r="AG50" s="43"/>
-      <c r="AH50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="45"/>
     </row>
     <row r="51" spans="1:35" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B51" s="6">
@@ -19603,42 +20563,42 @@
       <c r="B52" s="4">
         <v>2</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45" t="s">
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="45"/>
-      <c r="AF52" s="45"/>
-      <c r="AG52" s="45"/>
-      <c r="AH52" s="45"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="42"/>
     </row>
     <row r="53" spans="1:35" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:35" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19661,17 +20621,15 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="I34:Y34"/>
-    <mergeCell ref="Z34:AH34"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:Y50"/>
-    <mergeCell ref="Z50:AH50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:Y51"/>
-    <mergeCell ref="Z51:AH51"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:Y41"/>
-    <mergeCell ref="Z41:AH41"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="I52:Y52"/>
     <mergeCell ref="Z52:AH52"/>
@@ -19688,19 +20646,21 @@
     <mergeCell ref="I43:Y43"/>
     <mergeCell ref="Z43:AH43"/>
     <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:Y51"/>
+    <mergeCell ref="Z51:AH51"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:Y41"/>
+    <mergeCell ref="Z41:AH41"/>
+    <mergeCell ref="I34:Y34"/>
+    <mergeCell ref="Z34:AH34"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:Y50"/>
+    <mergeCell ref="Z50:AH50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;10－&amp;P－</oddFooter>
   </headerFooter>
@@ -19712,7 +20672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH154"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -20590,98 +21550,98 @@
       </c>
     </row>
     <row r="136" spans="1:34" s="19" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56" t="s">
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G136" s="56"/>
-      <c r="H136" s="60" t="s">
+      <c r="G136" s="47"/>
+      <c r="H136" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="I136" s="56"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="56" t="s">
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L136" s="56"/>
-      <c r="M136" s="56"/>
-      <c r="N136" s="56"/>
-      <c r="O136" s="56"/>
-      <c r="P136" s="56"/>
-      <c r="Q136" s="56" t="s">
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="R136" s="56"/>
-      <c r="S136" s="56"/>
-      <c r="T136" s="56"/>
-      <c r="U136" s="56"/>
-      <c r="V136" s="56"/>
-      <c r="W136" s="56"/>
-      <c r="X136" s="56"/>
-      <c r="Y136" s="56"/>
-      <c r="Z136" s="56" t="s">
+      <c r="R136" s="47"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="47"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="47"/>
+      <c r="Y136" s="47"/>
+      <c r="Z136" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AA136" s="56"/>
-      <c r="AB136" s="56"/>
-      <c r="AC136" s="56"/>
-      <c r="AD136" s="56"/>
-      <c r="AE136" s="56"/>
-      <c r="AF136" s="56"/>
-      <c r="AG136" s="56"/>
-      <c r="AH136" s="56"/>
+      <c r="AA136" s="47"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="47"/>
+      <c r="AE136" s="47"/>
+      <c r="AF136" s="47"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
     </row>
     <row r="137" spans="1:34" s="19" customFormat="1" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="57" t="s">
+      <c r="B137" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57" t="s">
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57" t="s">
+      <c r="G137" s="48"/>
+      <c r="H137" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I137" s="57"/>
-      <c r="J137" s="57"/>
-      <c r="K137" s="58" t="s">
+      <c r="I137" s="48"/>
+      <c r="J137" s="48"/>
+      <c r="K137" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="L137" s="58"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="58"/>
-      <c r="O137" s="58"/>
-      <c r="P137" s="58"/>
-      <c r="Q137" s="58" t="s">
+      <c r="L137" s="49"/>
+      <c r="M137" s="49"/>
+      <c r="N137" s="49"/>
+      <c r="O137" s="49"/>
+      <c r="P137" s="49"/>
+      <c r="Q137" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="R137" s="58"/>
-      <c r="S137" s="58"/>
-      <c r="T137" s="58"/>
-      <c r="U137" s="58"/>
-      <c r="V137" s="58"/>
-      <c r="W137" s="58"/>
-      <c r="X137" s="58"/>
-      <c r="Y137" s="58"/>
-      <c r="Z137" s="58" t="s">
+      <c r="R137" s="49"/>
+      <c r="S137" s="49"/>
+      <c r="T137" s="49"/>
+      <c r="U137" s="49"/>
+      <c r="V137" s="49"/>
+      <c r="W137" s="49"/>
+      <c r="X137" s="49"/>
+      <c r="Y137" s="49"/>
+      <c r="Z137" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="AA137" s="59"/>
-      <c r="AB137" s="59"/>
-      <c r="AC137" s="59"/>
-      <c r="AD137" s="59"/>
-      <c r="AE137" s="59"/>
-      <c r="AF137" s="59"/>
-      <c r="AG137" s="59"/>
-      <c r="AH137" s="59"/>
+      <c r="AA137" s="50"/>
+      <c r="AB137" s="50"/>
+      <c r="AC137" s="50"/>
+      <c r="AD137" s="50"/>
+      <c r="AE137" s="50"/>
+      <c r="AF137" s="50"/>
+      <c r="AG137" s="50"/>
+      <c r="AH137" s="50"/>
     </row>
     <row r="138" spans="1:34" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="51" t="s">
@@ -20699,25 +21659,25 @@
       </c>
       <c r="I138" s="51"/>
       <c r="J138" s="51"/>
-      <c r="K138" s="45" t="s">
+      <c r="K138" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L138" s="45"/>
-      <c r="M138" s="45"/>
-      <c r="N138" s="45"/>
-      <c r="O138" s="45"/>
-      <c r="P138" s="45"/>
-      <c r="Q138" s="45" t="s">
+      <c r="L138" s="42"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="42"/>
+      <c r="O138" s="42"/>
+      <c r="P138" s="42"/>
+      <c r="Q138" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="R138" s="45"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="45"/>
-      <c r="U138" s="45"/>
-      <c r="V138" s="45"/>
-      <c r="W138" s="45"/>
-      <c r="X138" s="45"/>
-      <c r="Y138" s="45"/>
+      <c r="R138" s="42"/>
+      <c r="S138" s="42"/>
+      <c r="T138" s="42"/>
+      <c r="U138" s="42"/>
+      <c r="V138" s="42"/>
+      <c r="W138" s="42"/>
+      <c r="X138" s="42"/>
+      <c r="Y138" s="42"/>
       <c r="Z138" s="52" t="s">
         <v>44</v>
       </c>
@@ -20746,36 +21706,36 @@
       </c>
       <c r="I139" s="51"/>
       <c r="J139" s="51"/>
-      <c r="K139" s="45" t="s">
+      <c r="K139" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="L139" s="45"/>
-      <c r="M139" s="45"/>
-      <c r="N139" s="45"/>
-      <c r="O139" s="45"/>
-      <c r="P139" s="45"/>
-      <c r="Q139" s="45" t="s">
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="42"/>
+      <c r="P139" s="42"/>
+      <c r="Q139" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="R139" s="45"/>
-      <c r="S139" s="45"/>
-      <c r="T139" s="45"/>
-      <c r="U139" s="45"/>
-      <c r="V139" s="45"/>
-      <c r="W139" s="45"/>
-      <c r="X139" s="45"/>
-      <c r="Y139" s="45"/>
-      <c r="Z139" s="45" t="s">
+      <c r="R139" s="42"/>
+      <c r="S139" s="42"/>
+      <c r="T139" s="42"/>
+      <c r="U139" s="42"/>
+      <c r="V139" s="42"/>
+      <c r="W139" s="42"/>
+      <c r="X139" s="42"/>
+      <c r="Y139" s="42"/>
+      <c r="Z139" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="AA139" s="55"/>
-      <c r="AB139" s="55"/>
-      <c r="AC139" s="55"/>
-      <c r="AD139" s="55"/>
-      <c r="AE139" s="55"/>
-      <c r="AF139" s="55"/>
-      <c r="AG139" s="55"/>
-      <c r="AH139" s="55"/>
+      <c r="AA139" s="56"/>
+      <c r="AB139" s="56"/>
+      <c r="AC139" s="56"/>
+      <c r="AD139" s="56"/>
+      <c r="AE139" s="56"/>
+      <c r="AF139" s="56"/>
+      <c r="AG139" s="56"/>
+      <c r="AH139" s="56"/>
     </row>
     <row r="140" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="51" t="s">
@@ -20793,36 +21753,36 @@
       </c>
       <c r="I140" s="51"/>
       <c r="J140" s="51"/>
-      <c r="K140" s="45" t="s">
+      <c r="K140" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="L140" s="45"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="45"/>
-      <c r="P140" s="45"/>
-      <c r="Q140" s="45" t="s">
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="42"/>
+      <c r="O140" s="42"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="R140" s="45"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
-      <c r="U140" s="45"/>
-      <c r="V140" s="45"/>
-      <c r="W140" s="45"/>
-      <c r="X140" s="45"/>
-      <c r="Y140" s="45"/>
-      <c r="Z140" s="45" t="s">
+      <c r="R140" s="42"/>
+      <c r="S140" s="42"/>
+      <c r="T140" s="42"/>
+      <c r="U140" s="42"/>
+      <c r="V140" s="42"/>
+      <c r="W140" s="42"/>
+      <c r="X140" s="42"/>
+      <c r="Y140" s="42"/>
+      <c r="Z140" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AA140" s="45"/>
-      <c r="AB140" s="45"/>
-      <c r="AC140" s="45"/>
-      <c r="AD140" s="45"/>
-      <c r="AE140" s="45"/>
-      <c r="AF140" s="45"/>
-      <c r="AG140" s="45"/>
-      <c r="AH140" s="45"/>
+      <c r="AA140" s="42"/>
+      <c r="AB140" s="42"/>
+      <c r="AC140" s="42"/>
+      <c r="AD140" s="42"/>
+      <c r="AE140" s="42"/>
+      <c r="AF140" s="42"/>
+      <c r="AG140" s="42"/>
+      <c r="AH140" s="42"/>
     </row>
     <row r="141" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="51"/>
@@ -20834,30 +21794,30 @@
       <c r="H141" s="51"/>
       <c r="I141" s="51"/>
       <c r="J141" s="51"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="45"/>
-      <c r="P141" s="45"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="45"/>
-      <c r="S141" s="45"/>
-      <c r="T141" s="45"/>
-      <c r="U141" s="45"/>
-      <c r="V141" s="45"/>
-      <c r="W141" s="45"/>
-      <c r="X141" s="45"/>
-      <c r="Y141" s="45"/>
-      <c r="Z141" s="45"/>
-      <c r="AA141" s="45"/>
-      <c r="AB141" s="45"/>
-      <c r="AC141" s="45"/>
-      <c r="AD141" s="45"/>
-      <c r="AE141" s="45"/>
-      <c r="AF141" s="45"/>
-      <c r="AG141" s="45"/>
-      <c r="AH141" s="45"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="O141" s="42"/>
+      <c r="P141" s="42"/>
+      <c r="Q141" s="42"/>
+      <c r="R141" s="42"/>
+      <c r="S141" s="42"/>
+      <c r="T141" s="42"/>
+      <c r="U141" s="42"/>
+      <c r="V141" s="42"/>
+      <c r="W141" s="42"/>
+      <c r="X141" s="42"/>
+      <c r="Y141" s="42"/>
+      <c r="Z141" s="42"/>
+      <c r="AA141" s="42"/>
+      <c r="AB141" s="42"/>
+      <c r="AC141" s="42"/>
+      <c r="AD141" s="42"/>
+      <c r="AE141" s="42"/>
+      <c r="AF141" s="42"/>
+      <c r="AG141" s="42"/>
+      <c r="AH141" s="42"/>
     </row>
     <row r="142" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="51"/>
@@ -20869,30 +21829,30 @@
       <c r="H142" s="51"/>
       <c r="I142" s="51"/>
       <c r="J142" s="51"/>
-      <c r="K142" s="45"/>
-      <c r="L142" s="45"/>
-      <c r="M142" s="45"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="45"/>
-      <c r="P142" s="45"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="45"/>
-      <c r="S142" s="45"/>
-      <c r="T142" s="45"/>
-      <c r="U142" s="45"/>
-      <c r="V142" s="45"/>
-      <c r="W142" s="45"/>
-      <c r="X142" s="45"/>
-      <c r="Y142" s="45"/>
-      <c r="Z142" s="45"/>
-      <c r="AA142" s="55"/>
-      <c r="AB142" s="55"/>
-      <c r="AC142" s="55"/>
-      <c r="AD142" s="55"/>
-      <c r="AE142" s="55"/>
-      <c r="AF142" s="55"/>
-      <c r="AG142" s="55"/>
-      <c r="AH142" s="55"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="42"/>
+      <c r="M142" s="42"/>
+      <c r="N142" s="42"/>
+      <c r="O142" s="42"/>
+      <c r="P142" s="42"/>
+      <c r="Q142" s="42"/>
+      <c r="R142" s="42"/>
+      <c r="S142" s="42"/>
+      <c r="T142" s="42"/>
+      <c r="U142" s="42"/>
+      <c r="V142" s="42"/>
+      <c r="W142" s="42"/>
+      <c r="X142" s="42"/>
+      <c r="Y142" s="42"/>
+      <c r="Z142" s="42"/>
+      <c r="AA142" s="56"/>
+      <c r="AB142" s="56"/>
+      <c r="AC142" s="56"/>
+      <c r="AD142" s="56"/>
+      <c r="AE142" s="56"/>
+      <c r="AF142" s="56"/>
+      <c r="AG142" s="56"/>
+      <c r="AH142" s="56"/>
     </row>
     <row r="143" spans="1:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="51"/>
@@ -20904,21 +21864,21 @@
       <c r="H143" s="51"/>
       <c r="I143" s="51"/>
       <c r="J143" s="51"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="45"/>
-      <c r="M143" s="45"/>
-      <c r="N143" s="45"/>
-      <c r="O143" s="45"/>
-      <c r="P143" s="45"/>
-      <c r="Q143" s="45"/>
-      <c r="R143" s="45"/>
-      <c r="S143" s="45"/>
-      <c r="T143" s="45"/>
-      <c r="U143" s="45"/>
-      <c r="V143" s="45"/>
-      <c r="W143" s="45"/>
-      <c r="X143" s="45"/>
-      <c r="Y143" s="45"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="42"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="42"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
+      <c r="R143" s="42"/>
+      <c r="S143" s="42"/>
+      <c r="T143" s="42"/>
+      <c r="U143" s="42"/>
+      <c r="V143" s="42"/>
+      <c r="W143" s="42"/>
+      <c r="X143" s="42"/>
+      <c r="Y143" s="42"/>
       <c r="Z143" s="52"/>
       <c r="AA143" s="53"/>
       <c r="AB143" s="53"/>
@@ -20939,30 +21899,30 @@
       <c r="H144" s="51"/>
       <c r="I144" s="51"/>
       <c r="J144" s="51"/>
-      <c r="K144" s="45"/>
-      <c r="L144" s="45"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="45"/>
-      <c r="O144" s="45"/>
-      <c r="P144" s="45"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="45"/>
-      <c r="S144" s="45"/>
-      <c r="T144" s="45"/>
-      <c r="U144" s="45"/>
-      <c r="V144" s="45"/>
-      <c r="W144" s="45"/>
-      <c r="X144" s="45"/>
-      <c r="Y144" s="45"/>
-      <c r="Z144" s="45"/>
-      <c r="AA144" s="45"/>
-      <c r="AB144" s="45"/>
-      <c r="AC144" s="45"/>
-      <c r="AD144" s="45"/>
-      <c r="AE144" s="45"/>
-      <c r="AF144" s="45"/>
-      <c r="AG144" s="45"/>
-      <c r="AH144" s="45"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="42"/>
+      <c r="O144" s="42"/>
+      <c r="P144" s="42"/>
+      <c r="Q144" s="42"/>
+      <c r="R144" s="42"/>
+      <c r="S144" s="42"/>
+      <c r="T144" s="42"/>
+      <c r="U144" s="42"/>
+      <c r="V144" s="42"/>
+      <c r="W144" s="42"/>
+      <c r="X144" s="42"/>
+      <c r="Y144" s="42"/>
+      <c r="Z144" s="42"/>
+      <c r="AA144" s="42"/>
+      <c r="AB144" s="42"/>
+      <c r="AC144" s="42"/>
+      <c r="AD144" s="42"/>
+      <c r="AE144" s="42"/>
+      <c r="AF144" s="42"/>
+      <c r="AG144" s="42"/>
+      <c r="AH144" s="42"/>
     </row>
     <row r="145" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="51"/>
@@ -20974,30 +21934,30 @@
       <c r="H145" s="51"/>
       <c r="I145" s="51"/>
       <c r="J145" s="51"/>
-      <c r="K145" s="45"/>
-      <c r="L145" s="45"/>
-      <c r="M145" s="45"/>
-      <c r="N145" s="45"/>
-      <c r="O145" s="45"/>
-      <c r="P145" s="45"/>
-      <c r="Q145" s="45"/>
-      <c r="R145" s="45"/>
-      <c r="S145" s="45"/>
-      <c r="T145" s="45"/>
-      <c r="U145" s="45"/>
-      <c r="V145" s="45"/>
-      <c r="W145" s="45"/>
-      <c r="X145" s="45"/>
-      <c r="Y145" s="45"/>
-      <c r="Z145" s="45"/>
-      <c r="AA145" s="45"/>
-      <c r="AB145" s="45"/>
-      <c r="AC145" s="45"/>
-      <c r="AD145" s="45"/>
-      <c r="AE145" s="45"/>
-      <c r="AF145" s="45"/>
-      <c r="AG145" s="45"/>
-      <c r="AH145" s="45"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="42"/>
+      <c r="O145" s="42"/>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="42"/>
+      <c r="R145" s="42"/>
+      <c r="S145" s="42"/>
+      <c r="T145" s="42"/>
+      <c r="U145" s="42"/>
+      <c r="V145" s="42"/>
+      <c r="W145" s="42"/>
+      <c r="X145" s="42"/>
+      <c r="Y145" s="42"/>
+      <c r="Z145" s="42"/>
+      <c r="AA145" s="42"/>
+      <c r="AB145" s="42"/>
+      <c r="AC145" s="42"/>
+      <c r="AD145" s="42"/>
+      <c r="AE145" s="42"/>
+      <c r="AF145" s="42"/>
+      <c r="AG145" s="42"/>
+      <c r="AH145" s="42"/>
     </row>
     <row r="146" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="51"/>
@@ -21009,30 +21969,30 @@
       <c r="H146" s="51"/>
       <c r="I146" s="51"/>
       <c r="J146" s="51"/>
-      <c r="K146" s="45"/>
-      <c r="L146" s="45"/>
-      <c r="M146" s="45"/>
-      <c r="N146" s="45"/>
-      <c r="O146" s="45"/>
-      <c r="P146" s="45"/>
-      <c r="Q146" s="45"/>
-      <c r="R146" s="45"/>
-      <c r="S146" s="45"/>
-      <c r="T146" s="45"/>
-      <c r="U146" s="45"/>
-      <c r="V146" s="45"/>
-      <c r="W146" s="45"/>
-      <c r="X146" s="45"/>
-      <c r="Y146" s="45"/>
-      <c r="Z146" s="45"/>
-      <c r="AA146" s="45"/>
-      <c r="AB146" s="45"/>
-      <c r="AC146" s="45"/>
-      <c r="AD146" s="45"/>
-      <c r="AE146" s="45"/>
-      <c r="AF146" s="45"/>
-      <c r="AG146" s="45"/>
-      <c r="AH146" s="45"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="42"/>
+      <c r="O146" s="42"/>
+      <c r="P146" s="42"/>
+      <c r="Q146" s="42"/>
+      <c r="R146" s="42"/>
+      <c r="S146" s="42"/>
+      <c r="T146" s="42"/>
+      <c r="U146" s="42"/>
+      <c r="V146" s="42"/>
+      <c r="W146" s="42"/>
+      <c r="X146" s="42"/>
+      <c r="Y146" s="42"/>
+      <c r="Z146" s="42"/>
+      <c r="AA146" s="42"/>
+      <c r="AB146" s="42"/>
+      <c r="AC146" s="42"/>
+      <c r="AD146" s="42"/>
+      <c r="AE146" s="42"/>
+      <c r="AF146" s="42"/>
+      <c r="AG146" s="42"/>
+      <c r="AH146" s="42"/>
     </row>
     <row r="147" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="51"/>
@@ -21044,30 +22004,30 @@
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
       <c r="J147" s="51"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="45"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45"/>
-      <c r="T147" s="45"/>
-      <c r="U147" s="45"/>
-      <c r="V147" s="45"/>
-      <c r="W147" s="45"/>
-      <c r="X147" s="45"/>
-      <c r="Y147" s="45"/>
-      <c r="Z147" s="45"/>
-      <c r="AA147" s="45"/>
-      <c r="AB147" s="45"/>
-      <c r="AC147" s="45"/>
-      <c r="AD147" s="45"/>
-      <c r="AE147" s="45"/>
-      <c r="AF147" s="45"/>
-      <c r="AG147" s="45"/>
-      <c r="AH147" s="45"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="42"/>
+      <c r="O147" s="42"/>
+      <c r="P147" s="42"/>
+      <c r="Q147" s="42"/>
+      <c r="R147" s="42"/>
+      <c r="S147" s="42"/>
+      <c r="T147" s="42"/>
+      <c r="U147" s="42"/>
+      <c r="V147" s="42"/>
+      <c r="W147" s="42"/>
+      <c r="X147" s="42"/>
+      <c r="Y147" s="42"/>
+      <c r="Z147" s="42"/>
+      <c r="AA147" s="42"/>
+      <c r="AB147" s="42"/>
+      <c r="AC147" s="42"/>
+      <c r="AD147" s="42"/>
+      <c r="AE147" s="42"/>
+      <c r="AF147" s="42"/>
+      <c r="AG147" s="42"/>
+      <c r="AH147" s="42"/>
     </row>
     <row r="148" spans="2:34" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="51"/>
@@ -21079,243 +22039,339 @@
       <c r="H148" s="51"/>
       <c r="I148" s="51"/>
       <c r="J148" s="51"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="45"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="45"/>
-      <c r="S148" s="45"/>
-      <c r="T148" s="45"/>
-      <c r="U148" s="45"/>
-      <c r="V148" s="45"/>
-      <c r="W148" s="45"/>
-      <c r="X148" s="45"/>
-      <c r="Y148" s="45"/>
-      <c r="Z148" s="45"/>
-      <c r="AA148" s="45"/>
-      <c r="AB148" s="45"/>
-      <c r="AC148" s="45"/>
-      <c r="AD148" s="45"/>
-      <c r="AE148" s="45"/>
-      <c r="AF148" s="45"/>
-      <c r="AG148" s="45"/>
-      <c r="AH148" s="45"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="42"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="42"/>
+      <c r="Q148" s="42"/>
+      <c r="R148" s="42"/>
+      <c r="S148" s="42"/>
+      <c r="T148" s="42"/>
+      <c r="U148" s="42"/>
+      <c r="V148" s="42"/>
+      <c r="W148" s="42"/>
+      <c r="X148" s="42"/>
+      <c r="Y148" s="42"/>
+      <c r="Z148" s="42"/>
+      <c r="AA148" s="42"/>
+      <c r="AB148" s="42"/>
+      <c r="AC148" s="42"/>
+      <c r="AD148" s="42"/>
+      <c r="AE148" s="42"/>
+      <c r="AF148" s="42"/>
+      <c r="AG148" s="42"/>
+      <c r="AH148" s="42"/>
     </row>
     <row r="149" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B149" s="49"/>
-      <c r="C149" s="49"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="49"/>
-      <c r="H149" s="49"/>
-      <c r="I149" s="49"/>
-      <c r="J149" s="49"/>
-      <c r="K149" s="50"/>
-      <c r="L149" s="50"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="50"/>
-      <c r="O149" s="50"/>
-      <c r="P149" s="50"/>
-      <c r="Q149" s="50"/>
-      <c r="R149" s="50"/>
-      <c r="S149" s="50"/>
-      <c r="T149" s="50"/>
-      <c r="U149" s="50"/>
-      <c r="V149" s="50"/>
-      <c r="W149" s="50"/>
-      <c r="X149" s="50"/>
-      <c r="Y149" s="50"/>
-      <c r="Z149" s="50"/>
-      <c r="AA149" s="50"/>
-      <c r="AB149" s="50"/>
-      <c r="AC149" s="50"/>
-      <c r="AD149" s="50"/>
-      <c r="AE149" s="50"/>
-      <c r="AF149" s="50"/>
-      <c r="AG149" s="50"/>
-      <c r="AH149" s="50"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="58"/>
+      <c r="L149" s="58"/>
+      <c r="M149" s="58"/>
+      <c r="N149" s="58"/>
+      <c r="O149" s="58"/>
+      <c r="P149" s="58"/>
+      <c r="Q149" s="58"/>
+      <c r="R149" s="58"/>
+      <c r="S149" s="58"/>
+      <c r="T149" s="58"/>
+      <c r="U149" s="58"/>
+      <c r="V149" s="58"/>
+      <c r="W149" s="58"/>
+      <c r="X149" s="58"/>
+      <c r="Y149" s="58"/>
+      <c r="Z149" s="58"/>
+      <c r="AA149" s="58"/>
+      <c r="AB149" s="58"/>
+      <c r="AC149" s="58"/>
+      <c r="AD149" s="58"/>
+      <c r="AE149" s="58"/>
+      <c r="AF149" s="58"/>
+      <c r="AG149" s="58"/>
+      <c r="AH149" s="58"/>
     </row>
     <row r="150" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B150" s="47"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47"/>
-      <c r="I150" s="47"/>
-      <c r="J150" s="47"/>
-      <c r="K150" s="48"/>
-      <c r="L150" s="48"/>
-      <c r="M150" s="48"/>
-      <c r="N150" s="48"/>
-      <c r="O150" s="48"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="48"/>
-      <c r="R150" s="48"/>
-      <c r="S150" s="48"/>
-      <c r="T150" s="48"/>
-      <c r="U150" s="48"/>
-      <c r="V150" s="48"/>
-      <c r="W150" s="48"/>
-      <c r="X150" s="48"/>
-      <c r="Y150" s="48"/>
-      <c r="Z150" s="48"/>
-      <c r="AA150" s="48"/>
-      <c r="AB150" s="48"/>
-      <c r="AC150" s="48"/>
-      <c r="AD150" s="48"/>
-      <c r="AE150" s="48"/>
-      <c r="AF150" s="48"/>
-      <c r="AG150" s="48"/>
-      <c r="AH150" s="48"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="59"/>
+      <c r="I150" s="59"/>
+      <c r="J150" s="59"/>
+      <c r="K150" s="60"/>
+      <c r="L150" s="60"/>
+      <c r="M150" s="60"/>
+      <c r="N150" s="60"/>
+      <c r="O150" s="60"/>
+      <c r="P150" s="60"/>
+      <c r="Q150" s="60"/>
+      <c r="R150" s="60"/>
+      <c r="S150" s="60"/>
+      <c r="T150" s="60"/>
+      <c r="U150" s="60"/>
+      <c r="V150" s="60"/>
+      <c r="W150" s="60"/>
+      <c r="X150" s="60"/>
+      <c r="Y150" s="60"/>
+      <c r="Z150" s="60"/>
+      <c r="AA150" s="60"/>
+      <c r="AB150" s="60"/>
+      <c r="AC150" s="60"/>
+      <c r="AD150" s="60"/>
+      <c r="AE150" s="60"/>
+      <c r="AF150" s="60"/>
+      <c r="AG150" s="60"/>
+      <c r="AH150" s="60"/>
     </row>
     <row r="151" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B151" s="47"/>
-      <c r="C151" s="47"/>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
-      <c r="I151" s="47"/>
-      <c r="J151" s="47"/>
-      <c r="K151" s="48"/>
-      <c r="L151" s="48"/>
-      <c r="M151" s="48"/>
-      <c r="N151" s="48"/>
-      <c r="O151" s="48"/>
-      <c r="P151" s="48"/>
-      <c r="Q151" s="48"/>
-      <c r="R151" s="48"/>
-      <c r="S151" s="48"/>
-      <c r="T151" s="48"/>
-      <c r="U151" s="48"/>
-      <c r="V151" s="48"/>
-      <c r="W151" s="48"/>
-      <c r="X151" s="48"/>
-      <c r="Y151" s="48"/>
-      <c r="Z151" s="48"/>
-      <c r="AA151" s="48"/>
-      <c r="AB151" s="48"/>
-      <c r="AC151" s="48"/>
-      <c r="AD151" s="48"/>
-      <c r="AE151" s="48"/>
-      <c r="AF151" s="48"/>
-      <c r="AG151" s="48"/>
-      <c r="AH151" s="48"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="59"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="59"/>
+      <c r="K151" s="60"/>
+      <c r="L151" s="60"/>
+      <c r="M151" s="60"/>
+      <c r="N151" s="60"/>
+      <c r="O151" s="60"/>
+      <c r="P151" s="60"/>
+      <c r="Q151" s="60"/>
+      <c r="R151" s="60"/>
+      <c r="S151" s="60"/>
+      <c r="T151" s="60"/>
+      <c r="U151" s="60"/>
+      <c r="V151" s="60"/>
+      <c r="W151" s="60"/>
+      <c r="X151" s="60"/>
+      <c r="Y151" s="60"/>
+      <c r="Z151" s="60"/>
+      <c r="AA151" s="60"/>
+      <c r="AB151" s="60"/>
+      <c r="AC151" s="60"/>
+      <c r="AD151" s="60"/>
+      <c r="AE151" s="60"/>
+      <c r="AF151" s="60"/>
+      <c r="AG151" s="60"/>
+      <c r="AH151" s="60"/>
     </row>
     <row r="152" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B152" s="47"/>
-      <c r="C152" s="47"/>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="48"/>
-      <c r="L152" s="48"/>
-      <c r="M152" s="48"/>
-      <c r="N152" s="48"/>
-      <c r="O152" s="48"/>
-      <c r="P152" s="48"/>
-      <c r="Q152" s="48"/>
-      <c r="R152" s="48"/>
-      <c r="S152" s="48"/>
-      <c r="T152" s="48"/>
-      <c r="U152" s="48"/>
-      <c r="V152" s="48"/>
-      <c r="W152" s="48"/>
-      <c r="X152" s="48"/>
-      <c r="Y152" s="48"/>
-      <c r="Z152" s="48"/>
-      <c r="AA152" s="48"/>
-      <c r="AB152" s="48"/>
-      <c r="AC152" s="48"/>
-      <c r="AD152" s="48"/>
-      <c r="AE152" s="48"/>
-      <c r="AF152" s="48"/>
-      <c r="AG152" s="48"/>
-      <c r="AH152" s="48"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="59"/>
+      <c r="I152" s="59"/>
+      <c r="J152" s="59"/>
+      <c r="K152" s="60"/>
+      <c r="L152" s="60"/>
+      <c r="M152" s="60"/>
+      <c r="N152" s="60"/>
+      <c r="O152" s="60"/>
+      <c r="P152" s="60"/>
+      <c r="Q152" s="60"/>
+      <c r="R152" s="60"/>
+      <c r="S152" s="60"/>
+      <c r="T152" s="60"/>
+      <c r="U152" s="60"/>
+      <c r="V152" s="60"/>
+      <c r="W152" s="60"/>
+      <c r="X152" s="60"/>
+      <c r="Y152" s="60"/>
+      <c r="Z152" s="60"/>
+      <c r="AA152" s="60"/>
+      <c r="AB152" s="60"/>
+      <c r="AC152" s="60"/>
+      <c r="AD152" s="60"/>
+      <c r="AE152" s="60"/>
+      <c r="AF152" s="60"/>
+      <c r="AG152" s="60"/>
+      <c r="AH152" s="60"/>
     </row>
     <row r="153" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B153" s="47"/>
-      <c r="C153" s="47"/>
-      <c r="D153" s="47"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="47"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="48"/>
-      <c r="L153" s="48"/>
-      <c r="M153" s="48"/>
-      <c r="N153" s="48"/>
-      <c r="O153" s="48"/>
-      <c r="P153" s="48"/>
-      <c r="Q153" s="48"/>
-      <c r="R153" s="48"/>
-      <c r="S153" s="48"/>
-      <c r="T153" s="48"/>
-      <c r="U153" s="48"/>
-      <c r="V153" s="48"/>
-      <c r="W153" s="48"/>
-      <c r="X153" s="48"/>
-      <c r="Y153" s="48"/>
-      <c r="Z153" s="48"/>
-      <c r="AA153" s="48"/>
-      <c r="AB153" s="48"/>
-      <c r="AC153" s="48"/>
-      <c r="AD153" s="48"/>
-      <c r="AE153" s="48"/>
-      <c r="AF153" s="48"/>
-      <c r="AG153" s="48"/>
-      <c r="AH153" s="48"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="59"/>
+      <c r="I153" s="59"/>
+      <c r="J153" s="59"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
+      <c r="M153" s="60"/>
+      <c r="N153" s="60"/>
+      <c r="O153" s="60"/>
+      <c r="P153" s="60"/>
+      <c r="Q153" s="60"/>
+      <c r="R153" s="60"/>
+      <c r="S153" s="60"/>
+      <c r="T153" s="60"/>
+      <c r="U153" s="60"/>
+      <c r="V153" s="60"/>
+      <c r="W153" s="60"/>
+      <c r="X153" s="60"/>
+      <c r="Y153" s="60"/>
+      <c r="Z153" s="60"/>
+      <c r="AA153" s="60"/>
+      <c r="AB153" s="60"/>
+      <c r="AC153" s="60"/>
+      <c r="AD153" s="60"/>
+      <c r="AE153" s="60"/>
+      <c r="AF153" s="60"/>
+      <c r="AG153" s="60"/>
+      <c r="AH153" s="60"/>
     </row>
     <row r="154" spans="2:34" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B154" s="47"/>
-      <c r="C154" s="47"/>
-      <c r="D154" s="47"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="47"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
-      <c r="I154" s="47"/>
-      <c r="J154" s="47"/>
-      <c r="K154" s="48"/>
-      <c r="L154" s="48"/>
-      <c r="M154" s="48"/>
-      <c r="N154" s="48"/>
-      <c r="O154" s="48"/>
-      <c r="P154" s="48"/>
-      <c r="Q154" s="48"/>
-      <c r="R154" s="48"/>
-      <c r="S154" s="48"/>
-      <c r="T154" s="48"/>
-      <c r="U154" s="48"/>
-      <c r="V154" s="48"/>
-      <c r="W154" s="48"/>
-      <c r="X154" s="48"/>
-      <c r="Y154" s="48"/>
-      <c r="Z154" s="48"/>
-      <c r="AA154" s="48"/>
-      <c r="AB154" s="48"/>
-      <c r="AC154" s="48"/>
-      <c r="AD154" s="48"/>
-      <c r="AE154" s="48"/>
-      <c r="AF154" s="48"/>
-      <c r="AG154" s="48"/>
-      <c r="AH154" s="48"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="59"/>
+      <c r="I154" s="59"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="60"/>
+      <c r="M154" s="60"/>
+      <c r="N154" s="60"/>
+      <c r="O154" s="60"/>
+      <c r="P154" s="60"/>
+      <c r="Q154" s="60"/>
+      <c r="R154" s="60"/>
+      <c r="S154" s="60"/>
+      <c r="T154" s="60"/>
+      <c r="U154" s="60"/>
+      <c r="V154" s="60"/>
+      <c r="W154" s="60"/>
+      <c r="X154" s="60"/>
+      <c r="Y154" s="60"/>
+      <c r="Z154" s="60"/>
+      <c r="AA154" s="60"/>
+      <c r="AB154" s="60"/>
+      <c r="AC154" s="60"/>
+      <c r="AD154" s="60"/>
+      <c r="AE154" s="60"/>
+      <c r="AF154" s="60"/>
+      <c r="AG154" s="60"/>
+      <c r="AH154" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:P153"/>
+    <mergeCell ref="Q153:Y153"/>
+    <mergeCell ref="Z153:AH153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:P154"/>
+    <mergeCell ref="Q154:Y154"/>
+    <mergeCell ref="Z154:AH154"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:P151"/>
+    <mergeCell ref="Q151:Y151"/>
+    <mergeCell ref="Z151:AH151"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:P152"/>
+    <mergeCell ref="Q152:Y152"/>
+    <mergeCell ref="Z152:AH152"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:P149"/>
+    <mergeCell ref="Q149:Y149"/>
+    <mergeCell ref="Z149:AH149"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:P150"/>
+    <mergeCell ref="Q150:Y150"/>
+    <mergeCell ref="Z150:AH150"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="K147:P147"/>
+    <mergeCell ref="Q147:Y147"/>
+    <mergeCell ref="Z147:AH147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="K148:P148"/>
+    <mergeCell ref="Q148:Y148"/>
+    <mergeCell ref="Z148:AH148"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:P145"/>
+    <mergeCell ref="Q145:Y145"/>
+    <mergeCell ref="Z145:AH145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:P146"/>
+    <mergeCell ref="Q146:Y146"/>
+    <mergeCell ref="Z146:AH146"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:P143"/>
+    <mergeCell ref="Q143:Y143"/>
+    <mergeCell ref="Z143:AH143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:P144"/>
+    <mergeCell ref="Q144:Y144"/>
+    <mergeCell ref="Z144:AH144"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="K141:P141"/>
+    <mergeCell ref="Q141:Y141"/>
+    <mergeCell ref="Z141:AH141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="K142:P142"/>
+    <mergeCell ref="Q142:Y142"/>
+    <mergeCell ref="Z142:AH142"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="K139:P139"/>
+    <mergeCell ref="Q139:Y139"/>
+    <mergeCell ref="Z139:AH139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="K140:P140"/>
+    <mergeCell ref="Q140:Y140"/>
+    <mergeCell ref="Z140:AH140"/>
     <mergeCell ref="Z136:AH136"/>
     <mergeCell ref="B137:E137"/>
     <mergeCell ref="F137:G137"/>
@@ -21334,106 +22390,10 @@
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="K136:P136"/>
     <mergeCell ref="Q136:Y136"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="K139:P139"/>
-    <mergeCell ref="Q139:Y139"/>
-    <mergeCell ref="Z139:AH139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="K140:P140"/>
-    <mergeCell ref="Q140:Y140"/>
-    <mergeCell ref="Z140:AH140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:P141"/>
-    <mergeCell ref="Q141:Y141"/>
-    <mergeCell ref="Z141:AH141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:P142"/>
-    <mergeCell ref="Q142:Y142"/>
-    <mergeCell ref="Z142:AH142"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:P143"/>
-    <mergeCell ref="Q143:Y143"/>
-    <mergeCell ref="Z143:AH143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:P144"/>
-    <mergeCell ref="Q144:Y144"/>
-    <mergeCell ref="Z144:AH144"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:P145"/>
-    <mergeCell ref="Q145:Y145"/>
-    <mergeCell ref="Z145:AH145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:P146"/>
-    <mergeCell ref="Q146:Y146"/>
-    <mergeCell ref="Z146:AH146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:P147"/>
-    <mergeCell ref="Q147:Y147"/>
-    <mergeCell ref="Z147:AH147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:P148"/>
-    <mergeCell ref="Q148:Y148"/>
-    <mergeCell ref="Z148:AH148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:P149"/>
-    <mergeCell ref="Q149:Y149"/>
-    <mergeCell ref="Z149:AH149"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:P150"/>
-    <mergeCell ref="Q150:Y150"/>
-    <mergeCell ref="Z150:AH150"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:P151"/>
-    <mergeCell ref="Q151:Y151"/>
-    <mergeCell ref="Z151:AH151"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:P152"/>
-    <mergeCell ref="Q152:Y152"/>
-    <mergeCell ref="Z152:AH152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="K153:P153"/>
-    <mergeCell ref="Q153:Y153"/>
-    <mergeCell ref="Z153:AH153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="K154:P154"/>
-    <mergeCell ref="Q154:Y154"/>
-    <mergeCell ref="Z154:AH154"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;10－&amp;P－</oddFooter>
   </headerFooter>
